--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syncfusion\Task branch\EJDOTNETCORE-1516_Text_render_issue\essentialstudio-common\Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitLab\EJ2-Core-46191-TableStyle\wwwroot\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141A9ABF-DF03-4794-8674-B0B256DD8DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41408D7-BD85-4BAF-87BD-222330773C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Autoshapes" sheetId="10" r:id="rId3"/>
     <sheet name="GroupShapes" sheetId="13" r:id="rId4"/>
     <sheet name="Picture Recolor" sheetId="14" r:id="rId5"/>
+    <sheet name="Chart" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -46,9 +47,9 @@
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +180,75 @@
   <si>
     <t>Pivot Table</t>
   </si>
+  <si>
+    <t>Monthly Expense</t>
+  </si>
+  <si>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Cable TV</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Childcare</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Personal Care</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Credit Cards</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Family Budget</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +266,7 @@
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -333,6 +403,92 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF413E36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF526D18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="31"/>
+      <color rgb="FF0B7E9B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF914106"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF914106"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="2" tint="-0.749961851863155"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -420,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -607,8 +763,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBAB5AB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF837B6B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -678,8 +870,22 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="4" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -780,6 +986,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="20" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="20" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,8 +1033,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="49">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Amounts" xfId="47" xr:uid="{36BC3C7C-A55F-4409-A9CC-BFB57F8D240A}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Body text" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Comma0" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -814,6 +1055,8 @@
     <cellStyle name="Header1" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Header2" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Header3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Heading 3" xfId="42" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="43" builtinId="19"/>
     <cellStyle name="Level 2 Total" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Major Total" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="NonPrint_TemTitle" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
@@ -821,6 +1064,7 @@
     <cellStyle name="Normal 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Normal 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 4" xfId="40" xr:uid="{F6E41AC8-ED7C-4F42-A334-373180B7070F}"/>
+    <cellStyle name="Normal 5" xfId="44" xr:uid="{B2FE65D7-95B1-47B5-A379-A4D26EE336A0}"/>
     <cellStyle name="Normal_PivotSizeTest" xfId="36" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal_Sheet1" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal_TapePivot" xfId="37" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
@@ -830,11 +1074,15 @@
     <cellStyle name="Product Title" xfId="26" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="RED POSTED" xfId="27" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Standard_Anpassen der Amortisation" xfId="28" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Table Details" xfId="46" xr:uid="{CF07C661-F70C-4B2B-B1E8-BAF592424691}"/>
     <cellStyle name="Text_simple" xfId="29" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
     <cellStyle name="TmsRmn10BlueItalic" xfId="30" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="TmsRmn10Bold" xfId="31" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Variance" xfId="48" xr:uid="{B633D31F-61E8-40CC-86D1-0BCFEF81375F}"/>
     <cellStyle name="Währung [0]_Compiling Utility Macros" xfId="32" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Year" xfId="45" xr:uid="{B8BDDE90-1244-4305-874C-3B48B609D645}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1267,6 +1515,1034 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Expense</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D674-44A1-B4FE-7618EA29E7F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$D$10:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D674-44A1-B4FE-7618EA29E7F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$E$10:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D674-44A1-B4FE-7618EA29E7F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443571768"/>
+        <c:axId val="443573736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443571768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443573736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443573736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443571768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3652,6 +4928,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9DAD1E-61EF-4292-81C0-87C93F286C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="sridhar.sukumar" refreshedDate="43433.706435995373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="49" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
@@ -4752,7 +6071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6588,91 +7907,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="35"/>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
       <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
       <c r="P5" s="35"/>
@@ -7114,20 +8433,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="15" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -7136,18 +8455,18 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="2:19" ht="15" customHeight="1">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -7156,18 +8475,18 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -7176,18 +8495,18 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -7273,99 +8592,99 @@
     <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7388,126 +8707,126 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="27" spans="13:15" ht="18">
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="41" spans="13:15" ht="18">
-      <c r="M41" s="38" t="s">
+      <c r="M41" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="50" spans="2:15" ht="18">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="55" spans="2:15" ht="18">
-      <c r="M55" s="38" t="s">
+      <c r="M55" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
     </row>
     <row r="69" spans="13:15" ht="18">
-      <c r="M69" s="38" t="s">
+      <c r="M69" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7522,4 +8841,365 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1A2137-92DA-4085-BDB2-BC407715E3DD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="36" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="30.75" customHeight="1"/>
+    <row r="3" spans="1:5" ht="26.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" ht="72" customHeight="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5" ht="27" thickBot="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" ht="33" thickBot="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="47">
+        <v>80</v>
+      </c>
+      <c r="D10" s="47">
+        <v>70</v>
+      </c>
+      <c r="E10" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="50">
+        <v>38</v>
+      </c>
+      <c r="D11" s="50">
+        <v>38</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="50">
+        <v>65</v>
+      </c>
+      <c r="D12" s="50">
+        <v>78</v>
+      </c>
+      <c r="E12" s="51">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="50">
+        <v>25</v>
+      </c>
+      <c r="D13" s="50">
+        <v>21</v>
+      </c>
+      <c r="E13" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="50">
+        <v>75</v>
+      </c>
+      <c r="D14" s="50">
+        <v>83</v>
+      </c>
+      <c r="E14" s="51">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="50">
+        <v>60</v>
+      </c>
+      <c r="D15" s="50">
+        <v>60</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0</v>
+      </c>
+      <c r="D16" s="50">
+        <v>60</v>
+      </c>
+      <c r="E16" s="51">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="50">
+        <v>180</v>
+      </c>
+      <c r="D17" s="50">
+        <v>150</v>
+      </c>
+      <c r="E17" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="50">
+        <v>250</v>
+      </c>
+      <c r="D18" s="50">
+        <v>250</v>
+      </c>
+      <c r="E18" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="50">
+        <v>75</v>
+      </c>
+      <c r="D19" s="50">
+        <v>80</v>
+      </c>
+      <c r="E19" s="51">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="50">
+        <v>280</v>
+      </c>
+      <c r="D20" s="50">
+        <v>260</v>
+      </c>
+      <c r="E20" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="50">
+        <v>75</v>
+      </c>
+      <c r="D21" s="50">
+        <v>65</v>
+      </c>
+      <c r="E21" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="50">
+        <v>255</v>
+      </c>
+      <c r="D22" s="50">
+        <v>255</v>
+      </c>
+      <c r="E22" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="50">
+        <v>100</v>
+      </c>
+      <c r="D23" s="50">
+        <v>100</v>
+      </c>
+      <c r="E23" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="50">
+        <v>225</v>
+      </c>
+      <c r="D24" s="50">
+        <v>225</v>
+      </c>
+      <c r="E24" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" customHeight="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="50">
+        <v>0</v>
+      </c>
+      <c r="D25" s="50">
+        <v>0</v>
+      </c>
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="53">
+        <v>1933</v>
+      </c>
+      <c r="D26" s="53">
+        <v>1945</v>
+      </c>
+      <c r="E26" s="53">
+        <v>-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter details in Expense table in this worksheet for tracking Projected and Actual Monthly Expenses" sqref="A3" xr:uid="{73436623-CE00-462E-841D-FCB9CEB0C482}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Name is automatically updated based on name entered in cell B1 in Cash Flow worksheet" sqref="B3" xr:uid="{B40FDCC4-FA90-4C74-9E39-858DB726CF19}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Month is automatically updated based on month entered in cell B3 in Cash Flow worksheet" sqref="B6" xr:uid="{7456823F-33C8-49F7-AD93-11665EB8CADB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Year is automatically updated based on year entered in cell B4 in Cash Flow worksheet. Enter expense details in table below" sqref="B7:B8" xr:uid="{68589EC1-609C-4D86-8ABC-450812A49D85}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Expense items in this column under this heading. Use heading filters to find specific entries" sqref="B9" xr:uid="{5C2E12AE-47E7-43A6-9993-2F5AF38148B7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Projected expense in this column under this heading" sqref="C9" xr:uid="{9A1C339F-5A75-41A1-8A0E-6A7518493CB9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Actual expense in this column under this heading" sqref="D9" xr:uid="{866070D5-26A1-430C-BAF0-ECB0C9E2FCD2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Variance is automatically calculated, and icon is updated in this column under this heading" sqref="E9" xr:uid="{E69E85B7-FF25-400A-8B63-5D3CCF41CFAF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title is automatically updated based on title entered in cell B2 in Cash Flow worksheet" sqref="B4:B5" xr:uid="{D03F88D0-251A-4672-80DA-6D8B098E3F49}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SridharSukumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PandiKumarDuraivel\Documents\Sample files_Reviewed\EJ2 ASP.NET Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627C9382-FC30-452C-83C0-1FA46D6198C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B79835-7195-44C4-B8F1-E58241C4F427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,19 @@
     <sheet name="Data" sheetId="5" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="12" r:id="rId2"/>
     <sheet name="Chart" sheetId="15" r:id="rId3"/>
+    <sheet name="Chart with shape" sheetId="19" r:id="rId4"/>
+    <sheet name="AdvancedCF" sheetId="16" r:id="rId5"/>
+    <sheet name="Top-Bottom Rules" sheetId="18" r:id="rId6"/>
+    <sheet name="Form Control" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="Data.Dump" localSheetId="6" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" localSheetId="6" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -36,20 +42,25 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="Macro1" localSheetId="6">'Form Control'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
+    <definedName name="Macro2" localSheetId="6">'Form Control'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
+    <definedName name="Ownership" localSheetId="6" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -79,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This Total column comment will be printed at the end of sheet.</t>
@@ -91,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -250,6 +261,357 @@
   </si>
   <si>
     <t>February</t>
+  </si>
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>SalesPerson</t>
+  </si>
+  <si>
+    <t>Sales Jan- June</t>
+  </si>
+  <si>
+    <t>Sales July - Dec</t>
+  </si>
+  <si>
+    <t>%Change</t>
+  </si>
+  <si>
+    <t>Andy Bernard</t>
+  </si>
+  <si>
+    <t>Jim Halpert</t>
+  </si>
+  <si>
+    <t>Karen Fillippelli</t>
+  </si>
+  <si>
+    <t>Phyllis Lapin</t>
+  </si>
+  <si>
+    <t>Stanley Hudson</t>
+  </si>
+  <si>
+    <t>BernardShah</t>
+  </si>
+  <si>
+    <t>Patricia McKenna</t>
+  </si>
+  <si>
+    <t>Antonio Moreno Taquería</t>
+  </si>
+  <si>
+    <t>Thomas Hardy</t>
+  </si>
+  <si>
+    <t>Christina Berglund</t>
+  </si>
+  <si>
+    <t>Hanna Moos</t>
+  </si>
+  <si>
+    <t>Frédérique Citeaux</t>
+  </si>
+  <si>
+    <t>Martín Sommer</t>
+  </si>
+  <si>
+    <t>Laurence Lebihan</t>
+  </si>
+  <si>
+    <t>Elizabeth Lincoln</t>
+  </si>
+  <si>
+    <t>Victoria Ashworth</t>
+  </si>
+  <si>
+    <t>Patricio Simpson</t>
+  </si>
+  <si>
+    <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>YangWang</t>
+  </si>
+  <si>
+    <t>Pedro Afonso</t>
+  </si>
+  <si>
+    <t>Elizabeth Brown</t>
+  </si>
+  <si>
+    <t>Sven Ottlieb</t>
+  </si>
+  <si>
+    <t>Janine Labrune</t>
+  </si>
+  <si>
+    <t>Ann Devon</t>
+  </si>
+  <si>
+    <t>Roland Mendel</t>
+  </si>
+  <si>
+    <t>Aria Cruz</t>
+  </si>
+  <si>
+    <t>Diego Roel</t>
+  </si>
+  <si>
+    <t>Martine Rancé</t>
+  </si>
+  <si>
+    <t>Maria Larsson</t>
+  </si>
+  <si>
+    <t>Peter Franken</t>
+  </si>
+  <si>
+    <t>Carine Schmitt</t>
+  </si>
+  <si>
+    <t>Paolo Accorti</t>
+  </si>
+  <si>
+    <t>Lino Rodriguez</t>
+  </si>
+  <si>
+    <t>Eduardo Saavedra</t>
+  </si>
+  <si>
+    <t>José Pedro Freyre</t>
+  </si>
+  <si>
+    <t>André Fonseca</t>
+  </si>
+  <si>
+    <t>Howard Snyder</t>
+  </si>
+  <si>
+    <t>Carlos Hernández</t>
+  </si>
+  <si>
+    <t>Manuel Pereira</t>
+  </si>
+  <si>
+    <t>Mario Pontes</t>
+  </si>
+  <si>
+    <t>Students Marks Report</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t>Top 10 Rank</t>
+  </si>
+  <si>
+    <t>Highlighted by Top 10 / Below Average</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>Subject 6</t>
+  </si>
+  <si>
+    <t>Subject 7</t>
+  </si>
+  <si>
+    <t>Subject 8</t>
+  </si>
+  <si>
+    <t>Subject 9</t>
+  </si>
+  <si>
+    <t>Subject 10</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Student 11</t>
+  </si>
+  <si>
+    <t>Student 12</t>
+  </si>
+  <si>
+    <t>Student 13</t>
+  </si>
+  <si>
+    <t>Student 14</t>
+  </si>
+  <si>
+    <t>Student 15</t>
+  </si>
+  <si>
+    <t>Student 16</t>
+  </si>
+  <si>
+    <t>Student 17</t>
+  </si>
+  <si>
+    <t>Student 18</t>
+  </si>
+  <si>
+    <t>Student 19</t>
+  </si>
+  <si>
+    <t>Student 20</t>
+  </si>
+  <si>
+    <t>Student 21</t>
+  </si>
+  <si>
+    <t>Student 22</t>
+  </si>
+  <si>
+    <t>Student 23</t>
+  </si>
+  <si>
+    <t>Student 24</t>
+  </si>
+  <si>
+    <t>Student 25</t>
+  </si>
+  <si>
+    <t>Student 26</t>
+  </si>
+  <si>
+    <t>Student 27</t>
+  </si>
+  <si>
+    <t>Student 28</t>
+  </si>
+  <si>
+    <t>Student 29</t>
+  </si>
+  <si>
+    <t>Student 30</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Toll Free</t>
+  </si>
+  <si>
+    <t>1-888-9DOTNET</t>
+  </si>
+  <si>
+    <t>1-888-936-8638</t>
+  </si>
+  <si>
+    <t>1-919-481-1974</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>1-919-573-0306</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>mailto:sales@syncfusion.com</t>
+  </si>
+  <si>
+    <t>Please fill out all required fields.</t>
+  </si>
+  <si>
+    <t>First Name*</t>
+  </si>
+  <si>
+    <t>Last Name*</t>
+  </si>
+  <si>
+    <t>Company*</t>
+  </si>
+  <si>
+    <t>Phone*</t>
+  </si>
+  <si>
+    <t>Email*</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Multiple products?</t>
+  </si>
+  <si>
+    <t>Product(s)*</t>
+  </si>
+  <si>
+    <t>Selected Products Count</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Online Payment</t>
+  </si>
+  <si>
+    <t>Card Type</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Net Banking</t>
   </si>
 </sst>
 </file>
@@ -268,10 +630,17 @@
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -378,6 +747,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -477,16 +847,101 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA63B26"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF339966"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +1020,20 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -764,122 +1231,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="2">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="3">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3"/>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="3">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="3"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="4"/>
-    <xf numFmtId="37" fontId="5" fillId="7" borderId="2" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="3"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="4"/>
+    <xf numFmtId="37" fontId="6" fillId="7" borderId="2" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="5" applyFill="0">
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="7"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="9" applyBorder="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="9" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="13" fillId="9" borderId="10"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="10"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="11" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="11" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="12" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="12" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="12" borderId="11" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="11" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -890,69 +1386,114 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="12" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="19" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="11" borderId="13" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="11" borderId="13" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="16" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="16" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="17" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="17" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="11" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="40" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="43" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="36" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="44" fillId="14" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="3" fillId="14" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="37" fillId="15" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="15" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="11" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="41" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="42" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Amounts" xfId="47" xr:uid="{36BC3C7C-A55F-4409-A9CC-BFB57F8D240A}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -976,6 +1517,7 @@
     <cellStyle name="Header3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Heading 3" xfId="42" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="43" builtinId="19"/>
+    <cellStyle name="Hyperlink 2" xfId="49" xr:uid="{631FD42B-73D5-452D-AD61-9D926689D2AD}"/>
     <cellStyle name="Level 2 Total" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Major Total" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="NonPrint_TemTitle" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
@@ -1003,7 +1545,21 @@
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Year" xfId="45" xr:uid="{B8BDDE90-1244-4305-874C-3B48B609D645}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA63B26"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1421,6 +1977,13 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFF5F5F5"/>
+      <color rgb="FFFFC0CB"/>
+      <color rgb="FF9ACD32"/>
+      <color rgb="FF9CD0F3"/>
+      <color rgb="FFA63B26"/>
+      <color rgb="FF339966"/>
       <color rgb="FF5786B9"/>
       <color rgb="FF538DC8"/>
     </mruColors>
@@ -1921,7 +2484,534 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Expense</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E07-448F-A106-E653D6F40FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$D$10:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E07-448F-A106-E653D6F40FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$E$10:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E07-448F-A106-E653D6F40FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443571768"/>
+        <c:axId val="443573736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443571768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443573736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443573736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443571768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2464,6 +3554,577 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Mixed" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="15" fmlaRange="'Form Control'!$A$60:$A$61" noThreeD="1" sel="2" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'Form Control'!$Z$9" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -2484,7 +4145,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9DAD1E-61EF-4292-81C0-87C93F286C6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,6 +4165,1969 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09756</cdr:x>
+      <cdr:y>0.02867</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32169</cdr:x>
+      <cdr:y>0.1362</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6941C039-BB6F-4E97-B416-5FF0F7B171B3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="469894" y="76190"/>
+          <a:ext cx="1079505" cy="285758"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Family</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Budget</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="contact_sales">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="184150"/>
+          <a:ext cx="6731000" cy="192722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587406</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="2578100"/>
+          <a:ext cx="2086006" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE6"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="2578100"/>
+          <a:ext cx="1997075" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE6"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="2946400"/>
+          <a:ext cx="4225925" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE6"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3314700"/>
+          <a:ext cx="4225925" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE6"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3683000"/>
+          <a:ext cx="4225925" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE6"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="4051300"/>
+          <a:ext cx="4225925" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="5708650"/>
+          <a:ext cx="4225925" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="CheckBox 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="CheckBox 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Studio</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5123" name="CheckBox 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Calculate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5124" name="CheckBox 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Chart</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5125" name="CheckBox 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Diagram</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5126" name="CheckBox 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Edit</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5127" name="CheckBox 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>XlsIO</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5128" name="CheckBox 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Grid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5129" name="CheckBox 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Grouping</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5130" name="CheckBox 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>HTMLUI</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5131" name="CheckBox 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>PDF</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5132" name="CheckBox 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Tools</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5133" name="CheckBox 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>DocIO</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5134" name="Drop Down 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5135" name="Option Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>American Express</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5136" name="Option Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Master Card</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5137" name="Option Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Visa</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3007,19 +6631,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Currency_TapePivot">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Currency_TapePivot">
   <autoFilter ref="A1:H30" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="7" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="6" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="9" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="8" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>TEXT(A2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="5" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="4" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="3" dataCellStyle="Normal_TapePivot"/>
-    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="0" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="7" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="5" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3405,7 +7029,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -3417,7 +7041,7 @@
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3439,11 +7063,11 @@
       <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" thickTop="1">
+    <row r="2" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39431</v>
       </c>
@@ -3471,7 +7095,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>39434</v>
       </c>
@@ -3499,7 +7123,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39437</v>
       </c>
@@ -3527,7 +7151,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>39440</v>
       </c>
@@ -3555,7 +7179,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39443</v>
       </c>
@@ -3583,7 +7207,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>39446</v>
       </c>
@@ -3611,7 +7235,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39449</v>
       </c>
@@ -3639,7 +7263,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>39452</v>
       </c>
@@ -3667,7 +7291,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39455</v>
       </c>
@@ -3695,7 +7319,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>39458</v>
       </c>
@@ -3723,7 +7347,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39461</v>
       </c>
@@ -3751,7 +7375,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>39464</v>
       </c>
@@ -3779,7 +7403,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39467</v>
       </c>
@@ -3807,7 +7431,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>39470</v>
       </c>
@@ -3835,7 +7459,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39473</v>
       </c>
@@ -3863,7 +7487,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>39476</v>
       </c>
@@ -3891,7 +7515,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39479</v>
       </c>
@@ -3919,7 +7543,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>39482</v>
       </c>
@@ -3947,7 +7571,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39485</v>
       </c>
@@ -3975,7 +7599,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>39488</v>
       </c>
@@ -4003,7 +7627,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39491</v>
       </c>
@@ -4031,7 +7655,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>39494</v>
       </c>
@@ -4059,7 +7683,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39497</v>
       </c>
@@ -4087,7 +7711,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>39500</v>
       </c>
@@ -4115,7 +7739,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39503</v>
       </c>
@@ -4143,7 +7767,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>39506</v>
       </c>
@@ -4171,7 +7795,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>39509</v>
       </c>
@@ -4199,7 +7823,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>39512</v>
       </c>
@@ -4227,7 +7851,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39515</v>
       </c>
@@ -4271,7 +7895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
@@ -4285,97 +7909,97 @@
     <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
@@ -4383,7 +8007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -4415,7 +8039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +8059,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -4453,7 +8077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
@@ -4473,7 +8097,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -4491,7 +8115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
@@ -4511,7 +8135,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
@@ -4533,7 +8157,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -4553,7 +8177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
@@ -4573,7 +8197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
@@ -4595,7 +8219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
@@ -4617,7 +8241,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +8261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
@@ -4655,7 +8279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -4673,7 +8297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
@@ -4691,7 +8315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
@@ -4713,7 +8337,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
@@ -4762,10 +8386,10 @@
   <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" style="22" customWidth="1"/>
     <col min="2" max="2" width="37.453125" style="22" bestFit="1" customWidth="1"/>
@@ -4776,8 +8400,8 @@
     <col min="8" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1"/>
-    <row r="3" spans="1:5" ht="26">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
         <v>50</v>
@@ -4786,7 +8410,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="26" t="s">
         <v>51</v>
@@ -4795,14 +8419,14 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23"/>
       <c r="B5" s="26"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="26.5" thickBot="1">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="23"/>
       <c r="B6" s="27" t="s">
         <v>52</v>
@@ -4811,7 +8435,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" ht="26">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
       <c r="B7" s="28">
         <v>2019</v>
@@ -4820,14 +8444,14 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
       <c r="B8" s="29"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" ht="32.5" thickBot="1">
+    <row r="9" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="23"/>
       <c r="B9" s="30" t="s">
         <v>30</v>
@@ -4842,7 +8466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23"/>
       <c r="B10" s="32" t="s">
         <v>34</v>
@@ -4857,7 +8481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23"/>
       <c r="B11" s="35" t="s">
         <v>35</v>
@@ -4872,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23"/>
       <c r="B12" s="35" t="s">
         <v>36</v>
@@ -4887,7 +8511,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
       <c r="B13" s="35" t="s">
         <v>37</v>
@@ -4902,7 +8526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="35" t="s">
         <v>38</v>
@@ -4917,7 +8541,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23"/>
       <c r="B15" s="35" t="s">
         <v>39</v>
@@ -4932,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="35" t="s">
         <v>40</v>
@@ -4947,7 +8571,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="35" t="s">
         <v>41</v>
@@ -4962,7 +8586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="35" t="s">
         <v>42</v>
@@ -4977,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23"/>
       <c r="B19" s="35" t="s">
         <v>43</v>
@@ -4992,7 +8616,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="35" t="s">
         <v>44</v>
@@ -5007,7 +8631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23"/>
       <c r="B21" s="35" t="s">
         <v>45</v>
@@ -5022,7 +8646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23"/>
       <c r="B22" s="35" t="s">
         <v>46</v>
@@ -5037,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="35" t="s">
         <v>47</v>
@@ -5052,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="35" t="s">
         <v>48</v>
@@ -5067,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23"/>
       <c r="B25" s="35" t="s">
         <v>49</v>
@@ -5082,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23"/>
       <c r="B26" s="38" t="s">
         <v>7</v>
@@ -5113,4 +8737,2888 @@
   <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA6F84-D07D-4046-97C3-E43A42109DAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48872D78-38DD-4088-B4DA-074F40E8A154}">
+  <dimension ref="B3:E46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D7" s="43">
+        <v>60000</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D8" s="43">
+        <v>65000</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="43">
+        <v>75000</v>
+      </c>
+      <c r="D9" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E9" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D10" s="43">
+        <v>32000</v>
+      </c>
+      <c r="E10" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="43">
+        <v>46500</v>
+      </c>
+      <c r="D11" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="43">
+        <v>48000</v>
+      </c>
+      <c r="D12" s="43">
+        <v>58000</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D13" s="43">
+        <v>65000</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="43">
+        <v>90000</v>
+      </c>
+      <c r="D14" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E14" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D15" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E15" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43">
+        <v>46500</v>
+      </c>
+      <c r="D16" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D17" s="43">
+        <v>58500</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D18" s="43">
+        <v>65000</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="43">
+        <v>75000</v>
+      </c>
+      <c r="D19" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E19" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D20" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E20" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="43">
+        <v>25000</v>
+      </c>
+      <c r="D21" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D22" s="43">
+        <v>58000</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D23" s="43">
+        <v>65700</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="43">
+        <v>75000</v>
+      </c>
+      <c r="D24" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E24" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D25" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E25" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="43">
+        <v>46500</v>
+      </c>
+      <c r="D26" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D27" s="43">
+        <v>58000</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D28" s="43">
+        <v>65000</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="43">
+        <v>75000</v>
+      </c>
+      <c r="D29" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E29" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="43">
+        <v>88000</v>
+      </c>
+      <c r="D30" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E30" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="43">
+        <v>46500</v>
+      </c>
+      <c r="D31" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D32" s="43">
+        <v>58000</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D33" s="43">
+        <v>65000</v>
+      </c>
+      <c r="E33" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="43">
+        <v>95000</v>
+      </c>
+      <c r="D34" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E34" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D35" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E35" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="43">
+        <v>46500</v>
+      </c>
+      <c r="D36" s="43">
+        <v>51500</v>
+      </c>
+      <c r="E36" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D37" s="43">
+        <v>58000</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D38" s="43">
+        <v>65000</v>
+      </c>
+      <c r="E38" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="43">
+        <v>75000</v>
+      </c>
+      <c r="D39" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E39" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D40" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E40" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="43">
+        <v>82000</v>
+      </c>
+      <c r="D41" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E41" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="43">
+        <v>45000</v>
+      </c>
+      <c r="D42" s="43">
+        <v>58300</v>
+      </c>
+      <c r="E42" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="43">
+        <v>34000</v>
+      </c>
+      <c r="D43" s="43">
+        <v>62400</v>
+      </c>
+      <c r="E43" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="43">
+        <v>75000</v>
+      </c>
+      <c r="D44" s="43">
+        <v>64000</v>
+      </c>
+      <c r="E44" s="44">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="43">
+        <v>56500</v>
+      </c>
+      <c r="D45" s="43">
+        <v>33600</v>
+      </c>
+      <c r="E45" s="44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="43">
+        <v>46500</v>
+      </c>
+      <c r="D46" s="43">
+        <v>52000</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C7:C46">
+    <cfRule type="dataBar" priority="5">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF9CD0F3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98B51F51-F371-451C-91DF-21B8376335E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4Rating" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E46">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF9ACD32"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1E1AE35-A3A9-4609-96E2-E9834DEE9C62}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98B51F51-F371-451C-91DF-21B8376335E6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7:C46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1E1AE35-A3A9-4609-96E2-E9834DEE9C62}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="middle">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFF5F5F5"/>
+              <x14:negativeFillColor rgb="FFFFC0CB"/>
+              <x14:negativeBorderColor rgb="FFF5F5F5"/>
+              <x14:axisColor rgb="FFFFFF00"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E7:E46</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60F057-DE13-4125-B8B4-9B21127D3DFA}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" style="46" customWidth="1"/>
+    <col min="2" max="11" width="10.54296875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="46" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="54">
+        <v>99</v>
+      </c>
+      <c r="C6" s="54">
+        <v>97</v>
+      </c>
+      <c r="D6" s="54">
+        <v>93</v>
+      </c>
+      <c r="E6" s="54">
+        <v>100</v>
+      </c>
+      <c r="F6" s="54">
+        <v>91</v>
+      </c>
+      <c r="G6" s="54">
+        <v>92</v>
+      </c>
+      <c r="H6" s="54">
+        <v>92</v>
+      </c>
+      <c r="I6" s="54">
+        <v>95</v>
+      </c>
+      <c r="J6" s="54">
+        <v>91</v>
+      </c>
+      <c r="K6" s="54">
+        <v>89</v>
+      </c>
+      <c r="L6" s="54">
+        <f>SUM(B6:K6)</f>
+        <v>939</v>
+      </c>
+      <c r="M6" s="54">
+        <f>AVERAGE(B6:K6)</f>
+        <v>93.9</v>
+      </c>
+      <c r="N6" s="46">
+        <f>RANK(L6,L6:L35)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="54">
+        <v>86</v>
+      </c>
+      <c r="C7" s="54">
+        <v>88</v>
+      </c>
+      <c r="D7" s="54">
+        <v>90</v>
+      </c>
+      <c r="E7" s="54">
+        <v>92</v>
+      </c>
+      <c r="F7" s="54">
+        <v>91</v>
+      </c>
+      <c r="G7" s="54">
+        <v>87</v>
+      </c>
+      <c r="H7" s="54">
+        <v>96</v>
+      </c>
+      <c r="I7" s="54">
+        <v>75</v>
+      </c>
+      <c r="J7" s="54">
+        <v>80</v>
+      </c>
+      <c r="K7" s="54">
+        <v>92</v>
+      </c>
+      <c r="L7" s="54">
+        <f t="shared" ref="L7:L35" si="0">SUM(B7:K7)</f>
+        <v>877</v>
+      </c>
+      <c r="M7" s="54">
+        <f t="shared" ref="M7:M35" si="1">AVERAGE(B7:K7)</f>
+        <v>87.7</v>
+      </c>
+      <c r="N7" s="46">
+        <f>RANK(L7,L6:L35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="54">
+        <v>91</v>
+      </c>
+      <c r="C8" s="54">
+        <v>92</v>
+      </c>
+      <c r="D8" s="54">
+        <v>97</v>
+      </c>
+      <c r="E8" s="54">
+        <v>94</v>
+      </c>
+      <c r="F8" s="54">
+        <v>91</v>
+      </c>
+      <c r="G8" s="54">
+        <v>92</v>
+      </c>
+      <c r="H8" s="54">
+        <v>95</v>
+      </c>
+      <c r="I8" s="54">
+        <v>99</v>
+      </c>
+      <c r="J8" s="54">
+        <v>100</v>
+      </c>
+      <c r="K8" s="54">
+        <v>94</v>
+      </c>
+      <c r="L8" s="54">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="M8" s="54">
+        <f t="shared" si="1"/>
+        <v>94.5</v>
+      </c>
+      <c r="N8" s="46">
+        <f>RANK(L8,L6:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="54">
+        <v>64</v>
+      </c>
+      <c r="C9" s="54">
+        <v>71</v>
+      </c>
+      <c r="D9" s="54">
+        <v>82</v>
+      </c>
+      <c r="E9" s="54">
+        <v>80</v>
+      </c>
+      <c r="F9" s="54">
+        <v>63</v>
+      </c>
+      <c r="G9" s="54">
+        <v>71</v>
+      </c>
+      <c r="H9" s="54">
+        <v>88</v>
+      </c>
+      <c r="I9" s="54">
+        <v>78</v>
+      </c>
+      <c r="J9" s="54">
+        <v>76</v>
+      </c>
+      <c r="K9" s="54">
+        <v>83</v>
+      </c>
+      <c r="L9" s="54">
+        <f t="shared" si="0"/>
+        <v>756</v>
+      </c>
+      <c r="M9" s="54">
+        <f t="shared" si="1"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="N9" s="46">
+        <f>RANK(L9,L6:L35)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="54">
+        <v>91</v>
+      </c>
+      <c r="C10" s="54">
+        <v>85</v>
+      </c>
+      <c r="D10" s="54">
+        <v>79</v>
+      </c>
+      <c r="E10" s="54">
+        <v>92</v>
+      </c>
+      <c r="F10" s="54">
+        <v>86</v>
+      </c>
+      <c r="G10" s="54">
+        <v>81</v>
+      </c>
+      <c r="H10" s="54">
+        <v>83</v>
+      </c>
+      <c r="I10" s="54">
+        <v>90</v>
+      </c>
+      <c r="J10" s="54">
+        <v>82</v>
+      </c>
+      <c r="K10" s="54">
+        <v>82</v>
+      </c>
+      <c r="L10" s="54">
+        <f t="shared" si="0"/>
+        <v>851</v>
+      </c>
+      <c r="M10" s="54">
+        <f t="shared" si="1"/>
+        <v>85.1</v>
+      </c>
+      <c r="N10" s="46">
+        <f>RANK(L10,L6:L35)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="54">
+        <v>90</v>
+      </c>
+      <c r="C11" s="54">
+        <v>81</v>
+      </c>
+      <c r="D11" s="54">
+        <v>90</v>
+      </c>
+      <c r="E11" s="54">
+        <v>83</v>
+      </c>
+      <c r="F11" s="54">
+        <v>82</v>
+      </c>
+      <c r="G11" s="54">
+        <v>92</v>
+      </c>
+      <c r="H11" s="54">
+        <v>95</v>
+      </c>
+      <c r="I11" s="54">
+        <v>89</v>
+      </c>
+      <c r="J11" s="54">
+        <v>87</v>
+      </c>
+      <c r="K11" s="54">
+        <v>88</v>
+      </c>
+      <c r="L11" s="54">
+        <f t="shared" si="0"/>
+        <v>877</v>
+      </c>
+      <c r="M11" s="54">
+        <f t="shared" si="1"/>
+        <v>87.7</v>
+      </c>
+      <c r="N11" s="46">
+        <f>RANK(L11,L6:L35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="54">
+        <v>82</v>
+      </c>
+      <c r="C12" s="54">
+        <v>89</v>
+      </c>
+      <c r="D12" s="54">
+        <v>94</v>
+      </c>
+      <c r="E12" s="54">
+        <v>91</v>
+      </c>
+      <c r="F12" s="54">
+        <v>86</v>
+      </c>
+      <c r="G12" s="54">
+        <v>87</v>
+      </c>
+      <c r="H12" s="54">
+        <v>80</v>
+      </c>
+      <c r="I12" s="54">
+        <v>83</v>
+      </c>
+      <c r="J12" s="54">
+        <v>86</v>
+      </c>
+      <c r="K12" s="54">
+        <v>80</v>
+      </c>
+      <c r="L12" s="54">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="M12" s="54">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+      <c r="N12" s="46">
+        <f>RANK(L12,L6:L35)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="54">
+        <v>77</v>
+      </c>
+      <c r="C13" s="54">
+        <v>78</v>
+      </c>
+      <c r="D13" s="54">
+        <v>60</v>
+      </c>
+      <c r="E13" s="54">
+        <v>79</v>
+      </c>
+      <c r="F13" s="54">
+        <v>65</v>
+      </c>
+      <c r="G13" s="54">
+        <v>77</v>
+      </c>
+      <c r="H13" s="54">
+        <v>80</v>
+      </c>
+      <c r="I13" s="54">
+        <v>73</v>
+      </c>
+      <c r="J13" s="54">
+        <v>70</v>
+      </c>
+      <c r="K13" s="54">
+        <v>81</v>
+      </c>
+      <c r="L13" s="54">
+        <f t="shared" si="0"/>
+        <v>740</v>
+      </c>
+      <c r="M13" s="54">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="N13" s="46">
+        <f>RANK(L13,L6:L35)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="54">
+        <v>71</v>
+      </c>
+      <c r="C14" s="54">
+        <v>82</v>
+      </c>
+      <c r="D14" s="54">
+        <v>69</v>
+      </c>
+      <c r="E14" s="54">
+        <v>75</v>
+      </c>
+      <c r="F14" s="54">
+        <v>69</v>
+      </c>
+      <c r="G14" s="54">
+        <v>81</v>
+      </c>
+      <c r="H14" s="54">
+        <v>70</v>
+      </c>
+      <c r="I14" s="54">
+        <v>72</v>
+      </c>
+      <c r="J14" s="54">
+        <v>74</v>
+      </c>
+      <c r="K14" s="54">
+        <v>84</v>
+      </c>
+      <c r="L14" s="54">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="M14" s="54">
+        <f t="shared" si="1"/>
+        <v>74.7</v>
+      </c>
+      <c r="N14" s="46">
+        <f>RANK(L14,L6:L35)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="54">
+        <v>85</v>
+      </c>
+      <c r="C15" s="54">
+        <v>81</v>
+      </c>
+      <c r="D15" s="54">
+        <v>84</v>
+      </c>
+      <c r="E15" s="54">
+        <v>88</v>
+      </c>
+      <c r="F15" s="54">
+        <v>83</v>
+      </c>
+      <c r="G15" s="54">
+        <v>81</v>
+      </c>
+      <c r="H15" s="54">
+        <v>89</v>
+      </c>
+      <c r="I15" s="54">
+        <v>88</v>
+      </c>
+      <c r="J15" s="54">
+        <v>82</v>
+      </c>
+      <c r="K15" s="54">
+        <v>85</v>
+      </c>
+      <c r="L15" s="54">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="M15" s="54">
+        <f t="shared" si="1"/>
+        <v>84.6</v>
+      </c>
+      <c r="N15" s="46">
+        <f>RANK(L15,L6:L35)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="54">
+        <v>85</v>
+      </c>
+      <c r="C16" s="54">
+        <v>75</v>
+      </c>
+      <c r="D16" s="54">
+        <v>79</v>
+      </c>
+      <c r="E16" s="54">
+        <v>78</v>
+      </c>
+      <c r="F16" s="54">
+        <v>82</v>
+      </c>
+      <c r="G16" s="54">
+        <v>86</v>
+      </c>
+      <c r="H16" s="54">
+        <v>81</v>
+      </c>
+      <c r="I16" s="54">
+        <v>70</v>
+      </c>
+      <c r="J16" s="54">
+        <v>79</v>
+      </c>
+      <c r="K16" s="54">
+        <v>86</v>
+      </c>
+      <c r="L16" s="54">
+        <f t="shared" si="0"/>
+        <v>801</v>
+      </c>
+      <c r="M16" s="54">
+        <f t="shared" si="1"/>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="N16" s="46">
+        <f>RANK(L16,L6:L35)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="54">
+        <v>91</v>
+      </c>
+      <c r="C17" s="54">
+        <v>92</v>
+      </c>
+      <c r="D17" s="54">
+        <v>90</v>
+      </c>
+      <c r="E17" s="54">
+        <v>100</v>
+      </c>
+      <c r="F17" s="54">
+        <v>91</v>
+      </c>
+      <c r="G17" s="54">
+        <v>91</v>
+      </c>
+      <c r="H17" s="54">
+        <v>92</v>
+      </c>
+      <c r="I17" s="54">
+        <v>92</v>
+      </c>
+      <c r="J17" s="54">
+        <v>92</v>
+      </c>
+      <c r="K17" s="54">
+        <v>91</v>
+      </c>
+      <c r="L17" s="54">
+        <f t="shared" si="0"/>
+        <v>922</v>
+      </c>
+      <c r="M17" s="54">
+        <f t="shared" si="1"/>
+        <v>92.2</v>
+      </c>
+      <c r="N17" s="46">
+        <f>RANK(L17,L6:L35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="54">
+        <v>94</v>
+      </c>
+      <c r="C18" s="54">
+        <v>81</v>
+      </c>
+      <c r="D18" s="54">
+        <v>93</v>
+      </c>
+      <c r="E18" s="54">
+        <v>69</v>
+      </c>
+      <c r="F18" s="54">
+        <v>82</v>
+      </c>
+      <c r="G18" s="54">
+        <v>90</v>
+      </c>
+      <c r="H18" s="54">
+        <v>91</v>
+      </c>
+      <c r="I18" s="54">
+        <v>92</v>
+      </c>
+      <c r="J18" s="54">
+        <v>89</v>
+      </c>
+      <c r="K18" s="54">
+        <v>81</v>
+      </c>
+      <c r="L18" s="54">
+        <f t="shared" si="0"/>
+        <v>862</v>
+      </c>
+      <c r="M18" s="54">
+        <f t="shared" si="1"/>
+        <v>86.2</v>
+      </c>
+      <c r="N18" s="46">
+        <f>RANK(L18,L6:L35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="54">
+        <v>87</v>
+      </c>
+      <c r="C19" s="54">
+        <v>89</v>
+      </c>
+      <c r="D19" s="54">
+        <v>87</v>
+      </c>
+      <c r="E19" s="54">
+        <v>86</v>
+      </c>
+      <c r="F19" s="54">
+        <v>82</v>
+      </c>
+      <c r="G19" s="54">
+        <v>80</v>
+      </c>
+      <c r="H19" s="54">
+        <v>84</v>
+      </c>
+      <c r="I19" s="54">
+        <v>92</v>
+      </c>
+      <c r="J19" s="54">
+        <v>90</v>
+      </c>
+      <c r="K19" s="54">
+        <v>89</v>
+      </c>
+      <c r="L19" s="54">
+        <f t="shared" si="0"/>
+        <v>866</v>
+      </c>
+      <c r="M19" s="54">
+        <f t="shared" si="1"/>
+        <v>86.6</v>
+      </c>
+      <c r="N19" s="46">
+        <f>RANK(L19,L6:L35)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="54">
+        <v>78</v>
+      </c>
+      <c r="C20" s="54">
+        <v>75</v>
+      </c>
+      <c r="D20" s="54">
+        <v>71</v>
+      </c>
+      <c r="E20" s="54">
+        <v>75</v>
+      </c>
+      <c r="F20" s="54">
+        <v>79</v>
+      </c>
+      <c r="G20" s="54">
+        <v>70</v>
+      </c>
+      <c r="H20" s="54">
+        <v>72</v>
+      </c>
+      <c r="I20" s="54">
+        <v>73</v>
+      </c>
+      <c r="J20" s="54">
+        <v>76</v>
+      </c>
+      <c r="K20" s="54">
+        <v>77</v>
+      </c>
+      <c r="L20" s="54">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+      <c r="M20" s="54">
+        <f t="shared" si="1"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N20" s="46">
+        <f>RANK(L20,L6:L35)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="54">
+        <v>93</v>
+      </c>
+      <c r="C21" s="54">
+        <v>91</v>
+      </c>
+      <c r="D21" s="54">
+        <v>90</v>
+      </c>
+      <c r="E21" s="54">
+        <v>89</v>
+      </c>
+      <c r="F21" s="54">
+        <v>82</v>
+      </c>
+      <c r="G21" s="54">
+        <v>85</v>
+      </c>
+      <c r="H21" s="54">
+        <v>87</v>
+      </c>
+      <c r="I21" s="54">
+        <v>88</v>
+      </c>
+      <c r="J21" s="54">
+        <v>87</v>
+      </c>
+      <c r="K21" s="54">
+        <v>84</v>
+      </c>
+      <c r="L21" s="54">
+        <f t="shared" si="0"/>
+        <v>876</v>
+      </c>
+      <c r="M21" s="54">
+        <f t="shared" si="1"/>
+        <v>87.6</v>
+      </c>
+      <c r="N21" s="46">
+        <f>RANK(L21,L6:L35)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="54">
+        <v>88</v>
+      </c>
+      <c r="C22" s="54">
+        <v>82</v>
+      </c>
+      <c r="D22" s="54">
+        <v>80</v>
+      </c>
+      <c r="E22" s="54">
+        <v>81</v>
+      </c>
+      <c r="F22" s="54">
+        <v>84</v>
+      </c>
+      <c r="G22" s="54">
+        <v>81</v>
+      </c>
+      <c r="H22" s="54">
+        <v>80</v>
+      </c>
+      <c r="I22" s="54">
+        <v>82</v>
+      </c>
+      <c r="J22" s="54">
+        <v>91</v>
+      </c>
+      <c r="K22" s="54">
+        <v>87</v>
+      </c>
+      <c r="L22" s="54">
+        <f t="shared" si="0"/>
+        <v>836</v>
+      </c>
+      <c r="M22" s="54">
+        <f t="shared" si="1"/>
+        <v>83.6</v>
+      </c>
+      <c r="N22" s="46">
+        <f>RANK(L22,L6:L35)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="54">
+        <v>93</v>
+      </c>
+      <c r="C23" s="54">
+        <v>94</v>
+      </c>
+      <c r="D23" s="54">
+        <v>95</v>
+      </c>
+      <c r="E23" s="54">
+        <v>92</v>
+      </c>
+      <c r="F23" s="54">
+        <v>90</v>
+      </c>
+      <c r="G23" s="54">
+        <v>90</v>
+      </c>
+      <c r="H23" s="54">
+        <v>98</v>
+      </c>
+      <c r="I23" s="54">
+        <v>100</v>
+      </c>
+      <c r="J23" s="54">
+        <v>99</v>
+      </c>
+      <c r="K23" s="54">
+        <v>94</v>
+      </c>
+      <c r="L23" s="54">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="M23" s="54">
+        <f t="shared" si="1"/>
+        <v>94.5</v>
+      </c>
+      <c r="N23" s="46">
+        <f>RANK(L23,L6:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="54">
+        <v>84</v>
+      </c>
+      <c r="C24" s="54">
+        <v>90</v>
+      </c>
+      <c r="D24" s="54">
+        <v>91</v>
+      </c>
+      <c r="E24" s="54">
+        <v>93</v>
+      </c>
+      <c r="F24" s="54">
+        <v>90</v>
+      </c>
+      <c r="G24" s="54">
+        <v>92</v>
+      </c>
+      <c r="H24" s="54">
+        <v>91</v>
+      </c>
+      <c r="I24" s="54">
+        <v>81</v>
+      </c>
+      <c r="J24" s="54">
+        <v>85</v>
+      </c>
+      <c r="K24" s="54">
+        <v>84</v>
+      </c>
+      <c r="L24" s="54">
+        <f t="shared" si="0"/>
+        <v>881</v>
+      </c>
+      <c r="M24" s="54">
+        <f t="shared" si="1"/>
+        <v>88.1</v>
+      </c>
+      <c r="N24" s="46">
+        <f>RANK(L24,L6:L35)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="54">
+        <v>83</v>
+      </c>
+      <c r="C25" s="54">
+        <v>75</v>
+      </c>
+      <c r="D25" s="54">
+        <v>74</v>
+      </c>
+      <c r="E25" s="54">
+        <v>76</v>
+      </c>
+      <c r="F25" s="54">
+        <v>78</v>
+      </c>
+      <c r="G25" s="54">
+        <v>89</v>
+      </c>
+      <c r="H25" s="54">
+        <v>90</v>
+      </c>
+      <c r="I25" s="54">
+        <v>87</v>
+      </c>
+      <c r="J25" s="54">
+        <v>82</v>
+      </c>
+      <c r="K25" s="54">
+        <v>88</v>
+      </c>
+      <c r="L25" s="54">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="M25" s="54">
+        <f t="shared" si="1"/>
+        <v>82.2</v>
+      </c>
+      <c r="N25" s="46">
+        <f>RANK(L25,L6:L35)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="54">
+        <v>89</v>
+      </c>
+      <c r="C26" s="54">
+        <v>87</v>
+      </c>
+      <c r="D26" s="54">
+        <v>83</v>
+      </c>
+      <c r="E26" s="54">
+        <v>80</v>
+      </c>
+      <c r="F26" s="54">
+        <v>91</v>
+      </c>
+      <c r="G26" s="54">
+        <v>72</v>
+      </c>
+      <c r="H26" s="54">
+        <v>92</v>
+      </c>
+      <c r="I26" s="54">
+        <v>85</v>
+      </c>
+      <c r="J26" s="54">
+        <v>89</v>
+      </c>
+      <c r="K26" s="54">
+        <v>94</v>
+      </c>
+      <c r="L26" s="54">
+        <f t="shared" si="0"/>
+        <v>862</v>
+      </c>
+      <c r="M26" s="54">
+        <f t="shared" si="1"/>
+        <v>86.2</v>
+      </c>
+      <c r="N26" s="46">
+        <f>RANK(L26,L6:L35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="54">
+        <v>89</v>
+      </c>
+      <c r="C27" s="54">
+        <v>87</v>
+      </c>
+      <c r="D27" s="54">
+        <v>91</v>
+      </c>
+      <c r="E27" s="54">
+        <v>90</v>
+      </c>
+      <c r="F27" s="54">
+        <v>90</v>
+      </c>
+      <c r="G27" s="54">
+        <v>83</v>
+      </c>
+      <c r="H27" s="54">
+        <v>87</v>
+      </c>
+      <c r="I27" s="54">
+        <v>91</v>
+      </c>
+      <c r="J27" s="54">
+        <v>90</v>
+      </c>
+      <c r="K27" s="54">
+        <v>94</v>
+      </c>
+      <c r="L27" s="54">
+        <f t="shared" si="0"/>
+        <v>892</v>
+      </c>
+      <c r="M27" s="54">
+        <f t="shared" si="1"/>
+        <v>89.2</v>
+      </c>
+      <c r="N27" s="46">
+        <f>RANK(L27,L6:L35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="54">
+        <v>87</v>
+      </c>
+      <c r="C28" s="54">
+        <v>91</v>
+      </c>
+      <c r="D28" s="54">
+        <v>90</v>
+      </c>
+      <c r="E28" s="54">
+        <v>90</v>
+      </c>
+      <c r="F28" s="54">
+        <v>81</v>
+      </c>
+      <c r="G28" s="54">
+        <v>79</v>
+      </c>
+      <c r="H28" s="54">
+        <v>78</v>
+      </c>
+      <c r="I28" s="54">
+        <v>79</v>
+      </c>
+      <c r="J28" s="54">
+        <v>80</v>
+      </c>
+      <c r="K28" s="54">
+        <v>87</v>
+      </c>
+      <c r="L28" s="54">
+        <f t="shared" si="0"/>
+        <v>842</v>
+      </c>
+      <c r="M28" s="54">
+        <f t="shared" si="1"/>
+        <v>84.2</v>
+      </c>
+      <c r="N28" s="46">
+        <f>RANK(L28,L6:L35)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="54">
+        <v>79</v>
+      </c>
+      <c r="C29" s="54">
+        <v>86</v>
+      </c>
+      <c r="D29" s="54">
+        <v>75</v>
+      </c>
+      <c r="E29" s="54">
+        <v>75</v>
+      </c>
+      <c r="F29" s="54">
+        <v>71</v>
+      </c>
+      <c r="G29" s="54">
+        <v>82</v>
+      </c>
+      <c r="H29" s="54">
+        <v>85</v>
+      </c>
+      <c r="I29" s="54">
+        <v>80</v>
+      </c>
+      <c r="J29" s="54">
+        <v>93</v>
+      </c>
+      <c r="K29" s="54">
+        <v>94</v>
+      </c>
+      <c r="L29" s="54">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="M29" s="54">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="N29" s="46">
+        <f>RANK(L29,L6:L35)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="54">
+        <v>80</v>
+      </c>
+      <c r="C30" s="54">
+        <v>79</v>
+      </c>
+      <c r="D30" s="54">
+        <v>87</v>
+      </c>
+      <c r="E30" s="54">
+        <v>89</v>
+      </c>
+      <c r="F30" s="54">
+        <v>91</v>
+      </c>
+      <c r="G30" s="54">
+        <v>90</v>
+      </c>
+      <c r="H30" s="54">
+        <v>94</v>
+      </c>
+      <c r="I30" s="54">
+        <v>93</v>
+      </c>
+      <c r="J30" s="54">
+        <v>91</v>
+      </c>
+      <c r="K30" s="54">
+        <v>94</v>
+      </c>
+      <c r="L30" s="54">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="M30" s="54">
+        <f t="shared" si="1"/>
+        <v>88.8</v>
+      </c>
+      <c r="N30" s="46">
+        <f>RANK(L30,L6:L35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="54">
+        <v>69</v>
+      </c>
+      <c r="C31" s="54">
+        <v>67</v>
+      </c>
+      <c r="D31" s="54">
+        <v>71</v>
+      </c>
+      <c r="E31" s="54">
+        <v>69</v>
+      </c>
+      <c r="F31" s="54">
+        <v>71</v>
+      </c>
+      <c r="G31" s="54">
+        <v>69</v>
+      </c>
+      <c r="H31" s="54">
+        <v>69</v>
+      </c>
+      <c r="I31" s="54">
+        <v>60</v>
+      </c>
+      <c r="J31" s="54">
+        <v>71</v>
+      </c>
+      <c r="K31" s="54">
+        <v>73</v>
+      </c>
+      <c r="L31" s="54">
+        <f t="shared" si="0"/>
+        <v>689</v>
+      </c>
+      <c r="M31" s="54">
+        <f t="shared" si="1"/>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N31" s="46">
+        <f>RANK(L31,L6:L35)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="54">
+        <v>73</v>
+      </c>
+      <c r="C32" s="54">
+        <v>77</v>
+      </c>
+      <c r="D32" s="54">
+        <v>78</v>
+      </c>
+      <c r="E32" s="54">
+        <v>82</v>
+      </c>
+      <c r="F32" s="54">
+        <v>84</v>
+      </c>
+      <c r="G32" s="54">
+        <v>90</v>
+      </c>
+      <c r="H32" s="54">
+        <v>91</v>
+      </c>
+      <c r="I32" s="54">
+        <v>75</v>
+      </c>
+      <c r="J32" s="54">
+        <v>80</v>
+      </c>
+      <c r="K32" s="54">
+        <v>85</v>
+      </c>
+      <c r="L32" s="54">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="M32" s="54">
+        <f t="shared" si="1"/>
+        <v>81.5</v>
+      </c>
+      <c r="N32" s="46">
+        <f>RANK(L32,L6:L35)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="54">
+        <v>93</v>
+      </c>
+      <c r="C33" s="54">
+        <v>87</v>
+      </c>
+      <c r="D33" s="54">
+        <v>85</v>
+      </c>
+      <c r="E33" s="54">
+        <v>83</v>
+      </c>
+      <c r="F33" s="54">
+        <v>71</v>
+      </c>
+      <c r="G33" s="54">
+        <v>80</v>
+      </c>
+      <c r="H33" s="54">
+        <v>82</v>
+      </c>
+      <c r="I33" s="54">
+        <v>85</v>
+      </c>
+      <c r="J33" s="54">
+        <v>81</v>
+      </c>
+      <c r="K33" s="54">
+        <v>84</v>
+      </c>
+      <c r="L33" s="54">
+        <f t="shared" si="0"/>
+        <v>831</v>
+      </c>
+      <c r="M33" s="54">
+        <f t="shared" si="1"/>
+        <v>83.1</v>
+      </c>
+      <c r="N33" s="46">
+        <f>RANK(L33,L6:L35)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="54">
+        <v>85</v>
+      </c>
+      <c r="C34" s="54">
+        <v>90</v>
+      </c>
+      <c r="D34" s="54">
+        <v>93</v>
+      </c>
+      <c r="E34" s="54">
+        <v>91</v>
+      </c>
+      <c r="F34" s="54">
+        <v>91</v>
+      </c>
+      <c r="G34" s="54">
+        <v>92</v>
+      </c>
+      <c r="H34" s="54">
+        <v>87</v>
+      </c>
+      <c r="I34" s="54">
+        <v>85</v>
+      </c>
+      <c r="J34" s="54">
+        <v>85</v>
+      </c>
+      <c r="K34" s="54">
+        <v>80</v>
+      </c>
+      <c r="L34" s="54">
+        <f t="shared" si="0"/>
+        <v>879</v>
+      </c>
+      <c r="M34" s="54">
+        <f t="shared" si="1"/>
+        <v>87.9</v>
+      </c>
+      <c r="N34" s="46">
+        <f>RANK(L34,L6:L35)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="54">
+        <v>89</v>
+      </c>
+      <c r="C35" s="54">
+        <v>87</v>
+      </c>
+      <c r="D35" s="54">
+        <v>83</v>
+      </c>
+      <c r="E35" s="54">
+        <v>86</v>
+      </c>
+      <c r="F35" s="54">
+        <v>81</v>
+      </c>
+      <c r="G35" s="54">
+        <v>80</v>
+      </c>
+      <c r="H35" s="54">
+        <v>92</v>
+      </c>
+      <c r="I35" s="54">
+        <v>80</v>
+      </c>
+      <c r="J35" s="54">
+        <v>94</v>
+      </c>
+      <c r="K35" s="54">
+        <v>92</v>
+      </c>
+      <c r="L35" s="54">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="M35" s="54">
+        <f t="shared" si="1"/>
+        <v>86.4</v>
+      </c>
+      <c r="N35" s="46">
+        <f>RANK(L35,L6:L35)</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N6:N35">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M35">
+    <cfRule type="aboveAverage" dxfId="0" priority="1" aboveAverage="0"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3C3B5-0723-4996-AAE5-1673A3F156D9}">
+  <dimension ref="A2:AA61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="55"/>
+    <col min="3" max="3" width="30.54296875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="55"/>
+    <col min="6" max="6" width="12.7265625" style="55" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="55" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Z2" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="55">
+        <f t="shared" ref="AA2:AA13" si="0">IF(Z2,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Z3" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C4" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C5" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z5" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="E6" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z6" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="E7" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z7" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C8" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z8" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C9" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z9" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C10" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z10" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Z11" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C12" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z12" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Z13" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="E14" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="66"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="58">
+        <f>SUM(AA2:AA13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C27:C28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{A295E9B7-5442-4161-8D57-626AAA2C3086}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId5" name="CheckBox 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5122" r:id="rId6" name="CheckBox 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5123" r:id="rId7" name="CheckBox 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5124" r:id="rId8" name="CheckBox 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5125" r:id="rId9" name="CheckBox 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5126" r:id="rId10" name="CheckBox 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5127" r:id="rId11" name="CheckBox 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5128" r:id="rId12" name="CheckBox 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5129" r:id="rId13" name="CheckBox 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5130" r:id="rId14" name="CheckBox 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5131" r:id="rId15" name="CheckBox 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5132" r:id="rId16" name="CheckBox 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5133" r:id="rId17" name="CheckBox 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5134" r:id="rId18" name="Drop Down 14">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5135" r:id="rId19" name="Option Button 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5136" r:id="rId20" name="Option Button 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5137" r:id="rId21" name="Option Button 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PandiKumarDuraivel\Documents\Sample files_Reviewed\EJ2 ASP.NET Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EJ2-70251-SlicerSamples\wwwroot\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B79835-7195-44C4-B8F1-E58241C4F427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC849A4-024F-45DF-A481-2806C0B76EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="12" r:id="rId2"/>
-    <sheet name="Chart" sheetId="15" r:id="rId3"/>
-    <sheet name="Chart with shape" sheetId="19" r:id="rId4"/>
-    <sheet name="AdvancedCF" sheetId="16" r:id="rId5"/>
-    <sheet name="Top-Bottom Rules" sheetId="18" r:id="rId6"/>
-    <sheet name="Form Control" sheetId="20" r:id="rId7"/>
+    <sheet name="Autoshapes" sheetId="21" r:id="rId3"/>
+    <sheet name="Chart" sheetId="15" r:id="rId4"/>
+    <sheet name="Chart with shape" sheetId="19" r:id="rId5"/>
+    <sheet name="AdvancedCF" sheetId="16" r:id="rId6"/>
+    <sheet name="Top-Bottom Rules" sheetId="18" r:id="rId7"/>
+    <sheet name="Form Control" sheetId="20" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
+    <definedName name="_1FLOW" localSheetId="2">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
-    <definedName name="Data.Dump" localSheetId="6" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
-    <definedName name="HTML_Control" localSheetId="6" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="2" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="7" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -42,17 +49,20 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
-    <definedName name="Macro1" localSheetId="6">'Form Control'!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="2">Autoshapes!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="7">'Form Control'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
-    <definedName name="Macro2" localSheetId="6">'Form Control'!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="2">Autoshapes!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="7">'Form Control'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
-    <definedName name="Ownership" localSheetId="6" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4127,6 +4137,734 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4ACD1D9-7596-45B5-87AA-7E8BD50C8893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856014" y="2366735"/>
+          <a:ext cx="1823357" cy="544286"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="EC1C24"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>xecution</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23586</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Down 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F48382-E02D-4C65-8104-39D1F103830B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463800" y="2911021"/>
+          <a:ext cx="607786" cy="362857"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE484563-EDC6-4FBD-83B0-A9055CC88713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856014" y="3273878"/>
+          <a:ext cx="1823357" cy="544286"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="F8BC19"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>esting</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23586</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Down 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9C5158-27C9-4B55-B823-94165BAC03E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463800" y="3818164"/>
+          <a:ext cx="607786" cy="362857"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1601B8B-FA1E-4AAA-84C9-3EA803B6E9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856014" y="4181021"/>
+          <a:ext cx="1823357" cy="544286"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="5DC1D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="5786B9"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>elease</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DA1EED-6548-4FBC-861C-FFC90935AA46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="552450"/>
+          <a:ext cx="1823357" cy="544285"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:srgbClr val="F5931E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>equirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605972</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Down 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6E24AA-AD46-40DC-8E6A-3ED752CED0F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2436586" y="1096735"/>
+          <a:ext cx="607786" cy="362857"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC08215D-B065-4D55-AAD1-D653E231FBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1459592"/>
+          <a:ext cx="1823357" cy="544286"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="99AF3C"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>esign</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Down 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F410E50A-02B7-469A-B326-2BF1A7969BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2436586" y="2003878"/>
+          <a:ext cx="607786" cy="362857"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4168,7 +4906,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4211,7 +4949,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4267,7 +5005,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6131,6 +6869,26 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TableStyle"/>
+      <sheetName val="Data"/>
+      <sheetName val="Autoshapes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="labuser" refreshedDate="43532.512713310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
@@ -8379,6 +9137,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E045DE8-22C0-46BF-9AA5-681C1BC0D17C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="55"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1A2137-92DA-4085-BDB2-BC407715E3DD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8739,7 +9517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA6F84-D07D-4046-97C3-E43A42109DAF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8754,7 +9532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48872D78-38DD-4088-B4DA-074F40E8A154}">
   <dimension ref="B3:E46"/>
   <sheetViews>
@@ -9456,7 +10234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60F057-DE13-4125-B8B4-9B21127D3DFA}">
   <dimension ref="A1:N35"/>
   <sheetViews>
@@ -10996,7 +11774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3C3B5-0723-4996-AAE5-1673A3F156D9}">
   <dimension ref="A2:AA61"/>
   <sheetViews>

--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample browser soruces for change\ej2-aspcore-samples\wwwroot\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample_Browser\Core\Release\ej2-aspcore-samples\wwwroot\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662302B-45E3-4377-8EA8-D422CB3C820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD6518-267A-428E-B1C0-2703E7A56E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="Ownership" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -80,7 +80,7 @@
     <author>Johnson Manohar</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D5689AB4-1294-447B-94F2-362711066B67}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D5689AB4-1294-447B-94F2-362711066B67}">
       <text>
         <r>
           <rPr>
@@ -4181,6 +4181,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27608</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358636</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B0F0A0-B523-4DBF-9D77-831989EE5B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27608" y="38652"/>
+          <a:ext cx="1987550" cy="691667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4907,7 +4962,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4950,7 +5005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4993,7 +5048,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5049,7 +5104,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5514,7 +5569,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5581,7 +5636,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5632,7 +5687,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5667,7 +5722,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5718,7 +5773,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5753,7 +5808,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5804,7 +5859,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5839,7 +5894,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5890,7 +5945,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5925,7 +5980,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5976,7 +6031,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6011,7 +6066,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6062,7 +6117,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6097,7 +6152,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6148,7 +6203,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6183,7 +6238,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6234,7 +6289,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6269,7 +6324,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6320,7 +6375,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6355,7 +6410,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6406,7 +6461,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6441,7 +6496,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6492,7 +6547,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6527,7 +6582,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6578,7 +6633,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6714,7 +6769,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6800,7 +6855,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6886,7 +6941,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6916,7 +6971,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="labuser" refreshedDate="43532.512713310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H30" sheet="Data"/>
+    <worksheetSource ref="A6:H35" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="170">
@@ -7413,12 +7468,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Currency_TapePivot">
-  <autoFilter ref="A1:H30" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Currency_TapePivot">
+  <autoFilter ref="A6:H35" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="9" dataCellStyle="Normal_PivotSizeTest"/>
     <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="8" dataCellStyle="Normal_PivotSizeTest">
-      <calculatedColumnFormula>TEXT(A2,"dddd")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT(A7,"dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="7" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
@@ -7426,7 +7481,7 @@
     <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest"/>
     <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="3" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest">
-      <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
+      <calculatedColumnFormula>G7*F7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7805,858 +7860,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A6:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H6" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="7" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>39431</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B30" si="0">TEXT(A2,"dddd")</f>
+      <c r="B7" s="1" t="str">
+        <f t="shared" ref="B7:B35" si="0">TEXT(A7,"dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F7" s="4">
         <v>700</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G7" s="5">
         <v>1.99</v>
       </c>
-      <c r="H2" s="14">
-        <f t="shared" ref="H2:H30" si="1">G2*F2</f>
+      <c r="H7" s="14">
+        <f t="shared" ref="H7:H35" si="1">G7*F7</f>
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>39434</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F8" s="9">
         <v>85</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G8" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>39437</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F9" s="4">
         <v>62</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G9" s="5">
         <v>4.99</v>
       </c>
-      <c r="H4" s="14">
-        <f>G4*F4</f>
+      <c r="H9" s="14">
+        <f>G9*F9</f>
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>39440</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F10" s="9">
         <v>58</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G10" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>39443</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F11" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G11" s="5">
         <v>4.99</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>39446</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F12" s="9">
         <v>19</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G12" s="10">
         <v>2.99</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H12" s="15">
         <f t="shared" si="1"/>
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>39449</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G13" s="5">
         <v>1.99</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H13" s="14">
         <f t="shared" si="1"/>
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>39452</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F14" s="9">
         <v>10</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G14" s="10">
         <v>4.99</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H14" s="15">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>39455</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F15" s="4">
         <v>39</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G15" s="5">
         <v>1.99</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>39458</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G16" s="10">
         <v>8.99</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H16" s="15">
         <f t="shared" si="1"/>
         <v>17.98</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>39461</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F17" s="4">
         <v>80</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G17" s="5">
         <v>4.99</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H17" s="14">
         <f t="shared" si="1"/>
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>39464</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F18" s="9">
         <v>51</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G18" s="10">
         <v>1.99</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H18" s="15">
         <f t="shared" si="1"/>
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>39467</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F19" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G19" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>39470</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F20" s="9">
         <v>15</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G20" s="10">
         <v>4.99</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H20" s="15">
         <f t="shared" si="1"/>
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>39473</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F21" s="4">
         <v>31</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G21" s="5">
         <v>125</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H21" s="14">
         <f t="shared" si="1"/>
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>39476</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F22" s="9">
         <v>46</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G22" s="10">
         <v>15.99</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H22" s="15">
         <f t="shared" si="1"/>
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>39479</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F23" s="4">
         <v>61</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G23" s="5">
         <v>8.99</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>39482</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F24" s="9">
         <v>90</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G24" s="10">
         <v>8.99</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H24" s="15">
         <f t="shared" si="1"/>
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>39485</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F25" s="4">
         <v>43</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G25" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H25" s="14">
         <f t="shared" si="1"/>
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>39488</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F26" s="9">
         <v>32</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G26" s="10">
         <v>4.99</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H26" s="15">
         <f t="shared" si="1"/>
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>39491</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F27" s="4">
         <v>37</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G27" s="5">
         <v>1.29</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H27" s="14">
         <f t="shared" si="1"/>
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>39494</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F28" s="9">
         <v>26</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G28" s="10">
         <v>15.99</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H28" s="15">
         <f t="shared" si="1"/>
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>39497</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F29" s="4">
         <v>79</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G29" s="5">
         <v>8.99</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H29" s="14">
         <f t="shared" si="1"/>
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>39500</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F30" s="9">
         <v>72</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G30" s="10">
         <v>15</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H30" s="15">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>39503</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F31" s="4">
         <v>27</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G31" s="5">
         <v>4.99</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H31" s="14">
         <f t="shared" si="1"/>
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>39506</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F32" s="9">
         <v>5</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G32" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H32" s="15">
         <f t="shared" si="1"/>
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>39509</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F33" s="4">
         <v>59</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G33" s="5">
         <v>4.99</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H33" s="14">
         <f t="shared" si="1"/>
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>39512</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F34" s="9">
         <v>41</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G34" s="10">
         <v>1.99</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H34" s="15">
         <f t="shared" si="1"/>
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>39515</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F35" s="4">
         <v>85</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G35" s="5">
         <v>4.99</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H35" s="14">
         <f t="shared" si="1"/>
         <v>424.15000000000003</v>
       </c>
@@ -8664,9 +8719,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" cellComments="atEnd" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8677,21 +8733,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="58" t="s">
         <v>29</v>
       </c>
@@ -8710,7 +8766,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -8728,7 +8784,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -8746,7 +8802,7 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -8764,7 +8820,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
@@ -8781,7 +8837,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
@@ -8789,7 +8845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -8821,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
@@ -8835,7 +8891,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -8846,7 +8902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
@@ -8860,7 +8916,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -8871,7 +8927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
@@ -8885,7 +8941,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
@@ -8902,7 +8958,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -8916,7 +8972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
@@ -8930,7 +8986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +9003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
@@ -8964,7 +9020,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
@@ -8978,7 +9034,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
@@ -8989,7 +9045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -9000,7 +9056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
@@ -9011,7 +9067,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
@@ -9028,7 +9084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
@@ -9077,9 +9133,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="54"/>
+    <col min="1" max="16384" width="8.7265625" style="54"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9100,19 +9156,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
-    <col min="4" max="5" width="21.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="3.54296875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="21" customWidth="1"/>
+    <col min="4" max="5" width="21.453125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>50</v>
@@ -9121,7 +9177,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
       <c r="B4" s="25" t="s">
         <v>51</v>
@@ -9130,14 +9186,14 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="22"/>
       <c r="B6" s="26" t="s">
         <v>52</v>
@@ -9146,7 +9202,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="27">
         <v>2019</v>
@@ -9155,14 +9211,14 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="28"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>30</v>
@@ -9177,7 +9233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="31" t="s">
         <v>34</v>
@@ -9192,7 +9248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="34" t="s">
         <v>35</v>
@@ -9207,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22"/>
       <c r="B12" s="34" t="s">
         <v>36</v>
@@ -9222,7 +9278,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
       <c r="B13" s="34" t="s">
         <v>37</v>
@@ -9237,7 +9293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="34" t="s">
         <v>38</v>
@@ -9252,7 +9308,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
       <c r="B15" s="34" t="s">
         <v>39</v>
@@ -9267,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="34" t="s">
         <v>40</v>
@@ -9282,7 +9338,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="34" t="s">
         <v>41</v>
@@ -9297,7 +9353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
@@ -9312,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="34" t="s">
         <v>43</v>
@@ -9327,7 +9383,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="34" t="s">
         <v>44</v>
@@ -9342,7 +9398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
       <c r="B21" s="34" t="s">
         <v>45</v>
@@ -9357,7 +9413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="34" t="s">
         <v>46</v>
@@ -9372,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="34" t="s">
         <v>47</v>
@@ -9387,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="34" t="s">
         <v>48</v>
@@ -9402,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="34" t="s">
         <v>49</v>
@@ -9417,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
       <c r="B26" s="37" t="s">
         <v>7</v>
@@ -9454,11 +9510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA6F84-D07D-4046-97C3-E43A42109DAF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9471,16 +9527,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="59" t="s">
         <v>53</v>
       </c>
@@ -9488,13 +9544,13 @@
       <c r="D3" s="60"/>
       <c r="E3" s="61"/>
     </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
@@ -9508,13 +9564,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
@@ -9528,7 +9584,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
         <v>59</v>
       </c>
@@ -9542,7 +9598,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
@@ -9556,7 +9612,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>61</v>
       </c>
@@ -9570,7 +9626,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
         <v>62</v>
       </c>
@@ -9584,7 +9640,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>63</v>
       </c>
@@ -9598,7 +9654,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>64</v>
       </c>
@@ -9612,7 +9668,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>65</v>
       </c>
@@ -9626,7 +9682,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
         <v>66</v>
       </c>
@@ -9640,7 +9696,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
         <v>67</v>
       </c>
@@ -9654,7 +9710,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
         <v>68</v>
       </c>
@@ -9668,7 +9724,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
         <v>69</v>
       </c>
@@ -9682,7 +9738,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>70</v>
       </c>
@@ -9696,7 +9752,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
@@ -9710,7 +9766,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
         <v>72</v>
       </c>
@@ -9724,7 +9780,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
         <v>73</v>
       </c>
@@ -9738,7 +9794,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
         <v>74</v>
       </c>
@@ -9752,7 +9808,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
         <v>75</v>
       </c>
@@ -9766,7 +9822,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>76</v>
       </c>
@@ -9780,7 +9836,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
         <v>77</v>
       </c>
@@ -9794,7 +9850,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
         <v>78</v>
       </c>
@@ -9808,7 +9864,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
         <v>79</v>
       </c>
@@ -9822,7 +9878,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
         <v>80</v>
       </c>
@@ -9836,7 +9892,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>81</v>
       </c>
@@ -9850,7 +9906,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
         <v>82</v>
       </c>
@@ -9864,7 +9920,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
         <v>83</v>
       </c>
@@ -9878,7 +9934,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
         <v>84</v>
       </c>
@@ -9892,7 +9948,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
         <v>85</v>
       </c>
@@ -9906,7 +9962,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>86</v>
       </c>
@@ -9920,7 +9976,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>87</v>
       </c>
@@ -9934,7 +9990,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
         <v>88</v>
       </c>
@@ -9948,7 +10004,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="40" t="s">
         <v>89</v>
       </c>
@@ -9962,7 +10018,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="40" t="s">
         <v>90</v>
       </c>
@@ -9976,7 +10032,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40" t="s">
         <v>91</v>
       </c>
@@ -9990,7 +10046,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40" t="s">
         <v>92</v>
       </c>
@@ -10004,7 +10060,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="40" t="s">
         <v>93</v>
       </c>
@@ -10018,7 +10074,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
         <v>94</v>
       </c>
@@ -10032,7 +10088,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
         <v>95</v>
       </c>
@@ -10046,7 +10102,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="40" t="s">
         <v>96</v>
       </c>
@@ -10060,7 +10116,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
         <v>97</v>
       </c>
@@ -10079,6 +10135,14 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C46">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4Rating" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="dataBar" priority="5">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -10091,23 +10155,8 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4Rating" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E46">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -10119,6 +10168,13 @@
           <x14:id>{B1E1AE35-A3A9-4609-96E2-E9834DEE9C62}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D46">
@@ -10175,16 +10231,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="45" customWidth="1"/>
-    <col min="2" max="11" width="10.5703125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="45" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="45"/>
+    <col min="1" max="1" width="17.81640625" style="45" customWidth="1"/>
+    <col min="2" max="11" width="10.54296875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="45" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="44" t="s">
         <v>98</v>
       </c>
@@ -10199,7 +10255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>101</v>
       </c>
@@ -10212,7 +10268,7 @@
       <c r="M2" s="62"/>
       <c r="N2" s="63"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
@@ -10220,7 +10276,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="63"/>
     </row>
-    <row r="4" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -10236,7 +10292,7 @@
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
         <v>102</v>
       </c>
@@ -10280,7 +10336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>115</v>
       </c>
@@ -10327,7 +10383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>116</v>
       </c>
@@ -10374,7 +10430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>117</v>
       </c>
@@ -10421,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
         <v>118</v>
       </c>
@@ -10468,7 +10524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
         <v>119</v>
       </c>
@@ -10515,7 +10571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>120</v>
       </c>
@@ -10562,7 +10618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>121</v>
       </c>
@@ -10609,7 +10665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
         <v>122</v>
       </c>
@@ -10656,7 +10712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>123</v>
       </c>
@@ -10703,7 +10759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>124</v>
       </c>
@@ -10750,7 +10806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>125</v>
       </c>
@@ -10797,7 +10853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>126</v>
       </c>
@@ -10844,7 +10900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
         <v>127</v>
       </c>
@@ -10891,7 +10947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
         <v>128</v>
       </c>
@@ -10938,7 +10994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>129</v>
       </c>
@@ -10985,7 +11041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>130</v>
       </c>
@@ -11032,7 +11088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
         <v>131</v>
       </c>
@@ -11079,7 +11135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
         <v>132</v>
       </c>
@@ -11126,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>133</v>
       </c>
@@ -11173,7 +11229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>134</v>
       </c>
@@ -11220,7 +11276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>135</v>
       </c>
@@ -11267,7 +11323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
         <v>136</v>
       </c>
@@ -11314,7 +11370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
         <v>137</v>
       </c>
@@ -11361,7 +11417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
         <v>138</v>
       </c>
@@ -11408,7 +11464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
         <v>139</v>
       </c>
@@ -11455,7 +11511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
         <v>140</v>
       </c>
@@ -11502,7 +11558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
         <v>141</v>
       </c>
@@ -11549,7 +11605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
         <v>142</v>
       </c>
@@ -11596,7 +11652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
@@ -11643,7 +11699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
         <v>144</v>
       </c>
@@ -11713,17 +11769,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="54"/>
-    <col min="3" max="3" width="30.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="54"/>
-    <col min="6" max="6" width="12.7109375" style="54" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="54"/>
+    <col min="1" max="2" width="8.7265625" style="54"/>
+    <col min="3" max="3" width="30.54296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="54"/>
+    <col min="6" max="6" width="12.7265625" style="54" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z2" s="54" t="b">
         <v>0</v>
       </c>
@@ -11732,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z3" s="54" t="b">
         <v>0</v>
       </c>
@@ -11741,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C4" s="55" t="s">
         <v>145</v>
       </c>
@@ -11753,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C5" s="54" t="s">
         <v>146</v>
       </c>
@@ -11768,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E6" s="54" t="s">
         <v>148</v>
       </c>
@@ -11780,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E7" s="54" t="s">
         <v>149</v>
       </c>
@@ -11792,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C8" s="54" t="s">
         <v>150</v>
       </c>
@@ -11807,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C9" s="54" t="s">
         <v>152</v>
       </c>
@@ -11819,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C10" s="54" t="s">
         <v>153</v>
       </c>
@@ -11834,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z11" s="54" t="b">
         <v>0</v>
       </c>
@@ -11843,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C12" s="54" t="s">
         <v>155</v>
       </c>
@@ -11855,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z13" s="54" t="b">
         <v>0</v>
       </c>
@@ -11864,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E14" s="55" t="s">
         <v>156</v>
       </c>
@@ -11872,40 +11928,40 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23" s="54" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C27" s="65" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" s="65"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="54" t="s">
         <v>164</v>
       </c>
@@ -11914,27 +11970,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="54" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C43" s="54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="54" t="s">
         <v>169</v>
       </c>
@@ -11967,7 +12023,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11989,7 +12045,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12011,7 +12067,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12033,7 +12089,7 @@
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12055,7 +12111,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12077,7 +12133,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12099,7 +12155,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12121,7 +12177,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12143,7 +12199,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12165,7 +12221,7 @@
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12187,7 +12243,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12209,7 +12265,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12231,7 +12287,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>

--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample_Browser\Core\Release\ej2-aspcore-samples\wwwroot\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD6518-267A-428E-B1C0-2703E7A56E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC79FB4-AD57-46A5-93C3-7AD26B6B1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -619,13 +619,37 @@
   </si>
   <si>
     <t>Net Banking</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Amount(in $)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Confections</t>
+  </si>
+  <si>
+    <t>Dairy Products</t>
+  </si>
+  <si>
+    <t>Grains/Cereals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -636,8 +660,9 @@
     <numFmt numFmtId="168" formatCode="0.00%_);[Red]\(0.00%\)"/>
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -947,8 +972,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,6 +1078,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5786B9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1407,7 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="5" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1474,7 +1528,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="50" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2531,62 +2600,33 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="1400" b="0" i="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Monthly</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1"/>
+              <a:t>Bar</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Expense</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0"/>
+              <a:t> Chart</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78890966754155734"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2598,247 +2638,388 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Chart!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Projected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:gradFill>
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="bg1"/>
+                  <a:srgbClr val="953735"/>
                 </a:gs>
-                <a:gs pos="90000">
-                  <a:srgbClr val="00B0F0"/>
+                <a:gs pos="74000">
+                  <a:srgbClr val="B0C6E1"/>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:srgbClr val="B0C6E1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="CAD9EB"/>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="1"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-lt"/>
+                    <a:cs typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="A6A6A6"/>
+                      </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:f>'Chart with shape'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Groceries</c:v>
+                  <c:v>Beverages</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Telephone</c:v>
+                  <c:v>Condiments</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Water</c:v>
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$C$10:$C$12</c:f>
+              <c:f>'Chart with shape'!$B$3:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>2776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E07-448F-A106-E653D6F40FB8}"/>
+              <c16:uniqueId val="{00000000-A802-4EAE-BB96-7D23EAAB35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-892794848"/>
+        <c:axId val="-892794304"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Chart!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="bg1"/>
-                </a:gs>
-                <a:gs pos="90000">
-                  <a:srgbClr val="92D050"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+              <a:headEnd type="triangle" w="med" len="med"/>
+              <a:tailEnd type="triangle"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A802-4EAE-BB96-7D23EAAB35D8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="plus"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="E56C0A"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="triangle" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A802-4EAE-BB96-7D23EAAB35D8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="22225">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="triangle" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A802-4EAE-BB96-7D23EAAB35D8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="triangle" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A802-4EAE-BB96-7D23EAAB35D8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A802-4EAE-BB96-7D23EAAB35D8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$B$10:$B$12</c:f>
+              <c:f>'Chart with shape'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Groceries</c:v>
+                  <c:v>Beverages</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Telephone</c:v>
+                  <c:v>Condiments</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Water</c:v>
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$D$10:$D$12</c:f>
+              <c:f>'Chart with shape'!$C$3:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E07-448F-A106-E653D6F40FB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Chart!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="bg1"/>
-                </a:gs>
-                <a:gs pos="90000">
-                  <a:schemeClr val="accent6"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Chart!$B$10:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Groceries</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Telephone</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Water</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Chart!$E$10:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E07-448F-A106-E653D6F40FB8}"/>
+              <c16:uniqueId val="{00000006-A802-4EAE-BB96-7D23EAAB35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="443571768"/>
-        <c:axId val="443573736"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-892794848"/>
+        <c:axId val="-892794304"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="443571768"/>
+        <c:axId val="-892794848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,159 +3030,114 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:ea typeface="+mn-lt"/>
+                <a:cs typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443573736"/>
+        <c:crossAx val="-892794304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443573736"/>
+        <c:axId val="-892794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="-20"/>
+          <c:max val="4000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:ea typeface="+mn-lt"/>
+                <a:cs typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443571768"/>
+        <c:crossAx val="-892794848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
-        <c:minorUnit val="4"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9525">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3021,7 +3157,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3065,550 +3201,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4184,22 +3777,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27608</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38652</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>358636</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>89797</xdr:rowOff>
+      <xdr:rowOff>94767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B0F0A0-B523-4DBF-9D77-831989EE5B3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +3814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27608" y="38652"/>
+          <a:off x="38100" y="38100"/>
           <a:ext cx="1987550" cy="691667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5007,25 +4600,25 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5052,19 +4645,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09756</cdr:x>
-      <cdr:y>0.02867</cdr:y>
+      <cdr:x>0.03944</cdr:x>
+      <cdr:y>0.02894</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.32169</cdr:x>
-      <cdr:y>0.1362</cdr:y>
+      <cdr:x>0.24583</cdr:x>
+      <cdr:y>0.12153</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6941C039-BB6F-4E97-B416-5FF0F7B171B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47821420-CBF7-1D3D-897D-07A323D00192}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5072,8 +4665,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="469894" y="76190"/>
-          <a:ext cx="1079505" cy="285758"/>
+          <a:off x="180303" y="79376"/>
+          <a:ext cx="943647" cy="254000"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5085,16 +4678,80 @@
         </a:ln>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Family</a:t>
+            <a:t>Sales</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Budget</a:t>
+            <a:t> Report</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -5569,7 +5226,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5636,7 +5293,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5687,7 +5344,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5722,7 +5379,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5773,7 +5430,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5808,7 +5465,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5859,7 +5516,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5894,7 +5551,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5945,7 +5602,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5980,7 +5637,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6031,7 +5688,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6066,7 +5723,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6117,7 +5774,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6152,7 +5809,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6203,7 +5860,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6238,7 +5895,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6289,7 +5946,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6324,7 +5981,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6375,7 +6032,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6410,7 +6067,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6461,7 +6118,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6496,7 +6153,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6547,7 +6204,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6582,7 +6239,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6633,7 +6290,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6769,7 +6426,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6855,7 +6512,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6941,7 +6598,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7862,23 +7519,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -7904,7 +7561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39431</v>
       </c>
@@ -7932,7 +7589,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>39434</v>
       </c>
@@ -7960,7 +7617,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39437</v>
       </c>
@@ -7988,7 +7645,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>39440</v>
       </c>
@@ -8016,7 +7673,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>39443</v>
       </c>
@@ -8044,7 +7701,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>39446</v>
       </c>
@@ -8072,7 +7729,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39449</v>
       </c>
@@ -8100,7 +7757,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>39452</v>
       </c>
@@ -8128,7 +7785,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39455</v>
       </c>
@@ -8156,7 +7813,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>39458</v>
       </c>
@@ -8184,7 +7841,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>39461</v>
       </c>
@@ -8212,7 +7869,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>39464</v>
       </c>
@@ -8240,7 +7897,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39467</v>
       </c>
@@ -8268,7 +7925,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>39470</v>
       </c>
@@ -8296,7 +7953,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>39473</v>
       </c>
@@ -8324,7 +7981,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>39476</v>
       </c>
@@ -8352,7 +8009,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>39479</v>
       </c>
@@ -8380,7 +8037,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>39482</v>
       </c>
@@ -8408,7 +8065,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>39485</v>
       </c>
@@ -8436,7 +8093,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>39488</v>
       </c>
@@ -8464,7 +8121,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39491</v>
       </c>
@@ -8492,7 +8149,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>39494</v>
       </c>
@@ -8520,7 +8177,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>39497</v>
       </c>
@@ -8548,7 +8205,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>39500</v>
       </c>
@@ -8576,7 +8233,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>39503</v>
       </c>
@@ -8604,7 +8261,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>39506</v>
       </c>
@@ -8632,7 +8289,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>39509</v>
       </c>
@@ -8660,7 +8317,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>39512</v>
       </c>
@@ -8688,7 +8345,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>39515</v>
       </c>
@@ -8731,113 +8388,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1432034B-5363-4A53-869C-00E67BE23915}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
@@ -8845,7 +8504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -8877,7 +8536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
@@ -8891,7 +8550,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -8902,7 +8561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
@@ -8916,7 +8575,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -8927,7 +8586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
@@ -8941,7 +8600,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
@@ -8958,7 +8617,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -8972,7 +8631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
@@ -8986,7 +8645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
@@ -9003,7 +8662,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
@@ -9020,7 +8679,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
@@ -9034,7 +8693,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
@@ -9045,7 +8704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -9056,7 +8715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
@@ -9067,7 +8726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
@@ -9084,7 +8743,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
@@ -9133,9 +8792,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="54"/>
+    <col min="1" max="16384" width="8.7109375" style="54"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9156,19 +8815,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="21" customWidth="1"/>
-    <col min="4" max="5" width="21.453125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="21"/>
+    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>50</v>
@@ -9177,7 +8836,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="25" t="s">
         <v>51</v>
@@ -9186,14 +8845,14 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="26" t="s">
         <v>52</v>
@@ -9202,7 +8861,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="27">
         <v>2019</v>
@@ -9211,14 +8870,14 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="28"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>30</v>
@@ -9233,7 +8892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="31" t="s">
         <v>34</v>
@@ -9248,7 +8907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="34" t="s">
         <v>35</v>
@@ -9263,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="34" t="s">
         <v>36</v>
@@ -9278,7 +8937,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="34" t="s">
         <v>37</v>
@@ -9293,7 +8952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="34" t="s">
         <v>38</v>
@@ -9308,7 +8967,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="34" t="s">
         <v>39</v>
@@ -9323,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="34" t="s">
         <v>40</v>
@@ -9338,7 +8997,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="34" t="s">
         <v>41</v>
@@ -9353,7 +9012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
@@ -9368,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="34" t="s">
         <v>43</v>
@@ -9383,7 +9042,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="34" t="s">
         <v>44</v>
@@ -9398,7 +9057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="34" t="s">
         <v>45</v>
@@ -9413,7 +9072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="34" t="s">
         <v>46</v>
@@ -9428,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="34" t="s">
         <v>47</v>
@@ -9443,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="34" t="s">
         <v>48</v>
@@ -9458,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="34" t="s">
         <v>49</v>
@@ -9473,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="37" t="s">
         <v>7</v>
@@ -9508,14 +9167,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA6F84-D07D-4046-97C3-E43A42109DAF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="60">
+        <v>2776</v>
+      </c>
+      <c r="C3" s="61">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="60">
+        <v>1077</v>
+      </c>
+      <c r="C4" s="61">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="60">
+        <v>2287</v>
+      </c>
+      <c r="C5" s="61">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="60">
+        <v>1368</v>
+      </c>
+      <c r="C6" s="61">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="60">
+        <v>3325</v>
+      </c>
+      <c r="C7" s="61">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9527,30 +9268,30 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="59" t="s">
+    <row r="3" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-    </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
@@ -9564,13 +9305,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
@@ -9584,7 +9325,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>59</v>
       </c>
@@ -9598,7 +9339,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
@@ -9612,7 +9353,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>61</v>
       </c>
@@ -9626,7 +9367,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
         <v>62</v>
       </c>
@@ -9640,7 +9381,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>63</v>
       </c>
@@ -9654,7 +9395,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>64</v>
       </c>
@@ -9668,7 +9409,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>65</v>
       </c>
@@ -9682,7 +9423,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>66</v>
       </c>
@@ -9696,7 +9437,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>67</v>
       </c>
@@ -9710,7 +9451,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
         <v>68</v>
       </c>
@@ -9724,7 +9465,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
         <v>69</v>
       </c>
@@ -9738,7 +9479,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
         <v>70</v>
       </c>
@@ -9752,7 +9493,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
@@ -9766,7 +9507,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="40" t="s">
         <v>72</v>
       </c>
@@ -9780,7 +9521,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="40" t="s">
         <v>73</v>
       </c>
@@ -9794,7 +9535,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="40" t="s">
         <v>74</v>
       </c>
@@ -9808,7 +9549,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="40" t="s">
         <v>75</v>
       </c>
@@ -9822,7 +9563,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="40" t="s">
         <v>76</v>
       </c>
@@ -9836,7 +9577,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="40" t="s">
         <v>77</v>
       </c>
@@ -9850,7 +9591,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="40" t="s">
         <v>78</v>
       </c>
@@ -9864,7 +9605,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
         <v>79</v>
       </c>
@@ -9878,7 +9619,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="40" t="s">
         <v>80</v>
       </c>
@@ -9892,7 +9633,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="40" t="s">
         <v>81</v>
       </c>
@@ -9906,7 +9647,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
         <v>82</v>
       </c>
@@ -9920,7 +9661,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="40" t="s">
         <v>83</v>
       </c>
@@ -9934,7 +9675,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="40" t="s">
         <v>84</v>
       </c>
@@ -9948,7 +9689,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="40" t="s">
         <v>85</v>
       </c>
@@ -9962,7 +9703,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="40" t="s">
         <v>86</v>
       </c>
@@ -9976,7 +9717,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="40" t="s">
         <v>87</v>
       </c>
@@ -9990,7 +9731,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="40" t="s">
         <v>88</v>
       </c>
@@ -10004,7 +9745,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="40" t="s">
         <v>89</v>
       </c>
@@ -10018,7 +9759,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="40" t="s">
         <v>90</v>
       </c>
@@ -10032,7 +9773,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="40" t="s">
         <v>91</v>
       </c>
@@ -10046,7 +9787,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="40" t="s">
         <v>92</v>
       </c>
@@ -10060,7 +9801,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="40" t="s">
         <v>93</v>
       </c>
@@ -10074,7 +9815,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="40" t="s">
         <v>94</v>
       </c>
@@ -10088,7 +9829,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="40" t="s">
         <v>95</v>
       </c>
@@ -10102,7 +9843,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="40" t="s">
         <v>96</v>
       </c>
@@ -10116,7 +9857,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="40" t="s">
         <v>97</v>
       </c>
@@ -10231,16 +9972,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="45" customWidth="1"/>
-    <col min="2" max="11" width="10.54296875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="45" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="45"/>
+    <col min="1" max="1" width="17.85546875" style="45" customWidth="1"/>
+    <col min="2" max="11" width="10.5703125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="45" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>98</v>
       </c>
@@ -10248,35 +9989,35 @@
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
       <c r="K2" s="48"/>
       <c r="L2" s="46"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -10292,7 +10033,7 @@
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>102</v>
       </c>
@@ -10336,7 +10077,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
         <v>115</v>
       </c>
@@ -10383,7 +10124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
         <v>116</v>
       </c>
@@ -10430,7 +10171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
         <v>117</v>
       </c>
@@ -10477,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
         <v>118</v>
       </c>
@@ -10524,7 +10265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
         <v>119</v>
       </c>
@@ -10571,7 +10312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
         <v>120</v>
       </c>
@@ -10618,7 +10359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
         <v>121</v>
       </c>
@@ -10665,7 +10406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
         <v>122</v>
       </c>
@@ -10712,7 +10453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45" t="s">
         <v>123</v>
       </c>
@@ -10759,7 +10500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
         <v>124</v>
       </c>
@@ -10806,7 +10547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
         <v>125</v>
       </c>
@@ -10853,7 +10594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
         <v>126</v>
       </c>
@@ -10900,7 +10641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
         <v>127</v>
       </c>
@@ -10947,7 +10688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="45" t="s">
         <v>128</v>
       </c>
@@ -10994,7 +10735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="45" t="s">
         <v>129</v>
       </c>
@@ -11041,7 +10782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
         <v>130</v>
       </c>
@@ -11088,7 +10829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="45" t="s">
         <v>131</v>
       </c>
@@ -11135,7 +10876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="45" t="s">
         <v>132</v>
       </c>
@@ -11182,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="45" t="s">
         <v>133</v>
       </c>
@@ -11229,7 +10970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
         <v>134</v>
       </c>
@@ -11276,7 +11017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="45" t="s">
         <v>135</v>
       </c>
@@ -11323,7 +11064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="45" t="s">
         <v>136</v>
       </c>
@@ -11370,7 +11111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="45" t="s">
         <v>137</v>
       </c>
@@ -11417,7 +11158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="45" t="s">
         <v>138</v>
       </c>
@@ -11464,7 +11205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
         <v>139</v>
       </c>
@@ -11511,7 +11252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
         <v>140</v>
       </c>
@@ -11558,7 +11299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="45" t="s">
         <v>141</v>
       </c>
@@ -11605,7 +11346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="45" t="s">
         <v>142</v>
       </c>
@@ -11652,7 +11393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
@@ -11699,7 +11440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
         <v>144</v>
       </c>
@@ -11769,17 +11510,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="54"/>
-    <col min="3" max="3" width="30.54296875" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="54"/>
-    <col min="6" max="6" width="12.7265625" style="54" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="54"/>
+    <col min="1" max="2" width="8.7109375" style="54"/>
+    <col min="3" max="3" width="30.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="54"/>
+    <col min="6" max="6" width="12.7109375" style="54" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
       <c r="Z2" s="54" t="b">
         <v>0</v>
       </c>
@@ -11788,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="Z3" s="54" t="b">
         <v>0</v>
       </c>
@@ -11797,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" s="55" t="s">
         <v>145</v>
       </c>
@@ -11809,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" s="54" t="s">
         <v>146</v>
       </c>
@@ -11824,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E6" s="54" t="s">
         <v>148</v>
       </c>
@@ -11836,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E7" s="54" t="s">
         <v>149</v>
       </c>
@@ -11848,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" s="54" t="s">
         <v>150</v>
       </c>
@@ -11863,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" s="54" t="s">
         <v>152</v>
       </c>
@@ -11875,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" s="54" t="s">
         <v>153</v>
       </c>
@@ -11890,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="Z11" s="54" t="b">
         <v>0</v>
       </c>
@@ -11899,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" s="54" t="s">
         <v>155</v>
       </c>
@@ -11911,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="Z13" s="54" t="b">
         <v>0</v>
       </c>
@@ -11920,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E14" s="55" t="s">
         <v>156</v>
       </c>
@@ -11928,40 +11669,40 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="54" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="65" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="70" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="65"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="70"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="54" t="s">
         <v>164</v>
       </c>
@@ -11970,27 +11711,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="54" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>169</v>
       </c>
@@ -12023,7 +11764,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12045,7 +11786,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12067,7 +11808,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12089,7 +11830,7 @@
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12111,7 +11852,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12133,7 +11874,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12155,7 +11896,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12177,7 +11918,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12199,7 +11940,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12221,7 +11962,7 @@
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12243,7 +11984,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12265,7 +12006,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12287,7 +12028,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>

--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PandiKumarDuraivel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC79FB4-AD57-46A5-93C3-7AD26B6B1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1126ED71-5C6D-465D-B133-A2DDE7BA2D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -1620,12 +1620,31 @@
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Year" xfId="45" xr:uid="{B8BDDE90-1244-4305-874C-3B48B609D645}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFA63B26"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFA63B26"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -2052,12 +2071,12 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFA63B26"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFF5F5F5"/>
       <color rgb="FFFFC0CB"/>
       <color rgb="FF9ACD32"/>
       <color rgb="FF9CD0F3"/>
-      <color rgb="FFA63B26"/>
       <color rgb="FF339966"/>
       <color rgb="FF5786B9"/>
       <color rgb="FF538DC8"/>
@@ -2190,6 +2209,22 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Chart!$B$10:$B$12</c:f>
@@ -2266,6 +2301,22 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Chart!$B$10:$B$12</c:f>
@@ -5226,7 +5277,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5293,7 +5344,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5344,7 +5395,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5379,7 +5430,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5430,7 +5481,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5465,7 +5516,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5516,7 +5567,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5551,7 +5602,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5602,7 +5653,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5637,7 +5688,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5688,7 +5739,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5723,7 +5774,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5774,7 +5825,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5809,7 +5860,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5860,7 +5911,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5895,7 +5946,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5946,7 +5997,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5981,7 +6032,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6032,7 +6083,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6067,7 +6118,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6118,7 +6169,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6153,7 +6204,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6204,7 +6255,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6239,7 +6290,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6290,7 +6341,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6426,7 +6477,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6512,7 +6563,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6598,7 +6649,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7125,19 +7176,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Currency_TapePivot">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Currency_TapePivot">
   <autoFilter ref="A6:H35" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="9" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="8" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="11" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="10" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>TEXT(A7,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="7" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="5" dataCellStyle="Normal_TapePivot"/>
-    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="9" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="8" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="7" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="6" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>G7*F7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7523,19 +7574,19 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -7561,7 +7612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39431</v>
       </c>
@@ -7589,7 +7640,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>39434</v>
       </c>
@@ -7617,7 +7668,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39437</v>
       </c>
@@ -7645,7 +7696,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>39440</v>
       </c>
@@ -7673,7 +7724,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39443</v>
       </c>
@@ -7701,7 +7752,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>39446</v>
       </c>
@@ -7729,7 +7780,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39449</v>
       </c>
@@ -7757,7 +7808,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>39452</v>
       </c>
@@ -7785,7 +7836,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39455</v>
       </c>
@@ -7813,7 +7864,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>39458</v>
       </c>
@@ -7841,7 +7892,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39461</v>
       </c>
@@ -7869,7 +7920,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>39464</v>
       </c>
@@ -7897,7 +7948,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39467</v>
       </c>
@@ -7925,7 +7976,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>39470</v>
       </c>
@@ -7953,7 +8004,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39473</v>
       </c>
@@ -7981,7 +8032,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>39476</v>
       </c>
@@ -8009,7 +8060,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39479</v>
       </c>
@@ -8037,7 +8088,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>39482</v>
       </c>
@@ -8065,7 +8116,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39485</v>
       </c>
@@ -8093,7 +8144,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>39488</v>
       </c>
@@ -8121,7 +8172,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>39491</v>
       </c>
@@ -8149,7 +8200,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>39494</v>
       </c>
@@ -8177,7 +8228,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39497</v>
       </c>
@@ -8205,7 +8256,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>39500</v>
       </c>
@@ -8233,7 +8284,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39503</v>
       </c>
@@ -8261,7 +8312,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39506</v>
       </c>
@@ -8289,7 +8340,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39509</v>
       </c>
@@ -8317,7 +8368,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>39512</v>
       </c>
@@ -8345,7 +8396,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39515</v>
       </c>
@@ -8392,21 +8443,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
         <v>29</v>
       </c>
@@ -8425,7 +8476,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -8443,7 +8494,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -8461,7 +8512,7 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -8479,7 +8530,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -8496,7 +8547,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
@@ -8504,7 +8555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -8536,7 +8587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
@@ -8550,7 +8601,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -8561,7 +8612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
@@ -8575,7 +8626,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -8586,7 +8637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
@@ -8600,7 +8651,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
@@ -8617,7 +8668,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -8631,7 +8682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
@@ -8645,7 +8696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
@@ -8662,7 +8713,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
@@ -8679,7 +8730,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
@@ -8693,7 +8744,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
@@ -8704,7 +8755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -8715,7 +8766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
@@ -8726,7 +8777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
@@ -8743,7 +8794,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
@@ -8792,9 +8843,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="54"/>
+    <col min="1" max="16384" width="8.7265625" style="54"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8811,23 +8862,23 @@
   </sheetPr>
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
-    <col min="4" max="5" width="21.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="3.54296875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="21" customWidth="1"/>
+    <col min="4" max="5" width="21.453125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>50</v>
@@ -8836,7 +8887,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
       <c r="B4" s="25" t="s">
         <v>51</v>
@@ -8845,14 +8896,14 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="22"/>
       <c r="B6" s="26" t="s">
         <v>52</v>
@@ -8861,7 +8912,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="27">
         <v>2019</v>
@@ -8870,14 +8921,14 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="28"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>30</v>
@@ -8892,7 +8943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="31" t="s">
         <v>34</v>
@@ -8907,7 +8958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="34" t="s">
         <v>35</v>
@@ -8922,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22"/>
       <c r="B12" s="34" t="s">
         <v>36</v>
@@ -8937,7 +8988,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
       <c r="B13" s="34" t="s">
         <v>37</v>
@@ -8952,7 +9003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="34" t="s">
         <v>38</v>
@@ -8967,7 +9018,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
       <c r="B15" s="34" t="s">
         <v>39</v>
@@ -8982,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="34" t="s">
         <v>40</v>
@@ -8997,7 +9048,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="34" t="s">
         <v>41</v>
@@ -9012,7 +9063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
@@ -9027,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="34" t="s">
         <v>43</v>
@@ -9042,7 +9093,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="34" t="s">
         <v>44</v>
@@ -9057,7 +9108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
       <c r="B21" s="34" t="s">
         <v>45</v>
@@ -9072,7 +9123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="34" t="s">
         <v>46</v>
@@ -9087,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="34" t="s">
         <v>47</v>
@@ -9102,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="34" t="s">
         <v>48</v>
@@ -9117,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="34" t="s">
         <v>49</v>
@@ -9132,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
       <c r="B26" s="37" t="s">
         <v>7</v>
@@ -9169,25 +9220,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA6F84-D07D-4046-97C3-E43A42109DAF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>170</v>
       </c>
@@ -9198,7 +9249,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
         <v>173</v>
       </c>
@@ -9209,7 +9260,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>174</v>
       </c>
@@ -9220,7 +9271,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>175</v>
       </c>
@@ -9231,7 +9282,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>176</v>
       </c>
@@ -9242,7 +9293,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>177</v>
       </c>
@@ -9268,16 +9319,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="64" t="s">
         <v>53</v>
       </c>
@@ -9285,13 +9336,13 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
@@ -9305,13 +9356,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
@@ -9325,7 +9376,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
         <v>59</v>
       </c>
@@ -9339,7 +9390,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
@@ -9353,7 +9404,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>61</v>
       </c>
@@ -9367,7 +9418,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
         <v>62</v>
       </c>
@@ -9381,7 +9432,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>63</v>
       </c>
@@ -9395,7 +9446,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>64</v>
       </c>
@@ -9409,7 +9460,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>65</v>
       </c>
@@ -9423,7 +9474,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
         <v>66</v>
       </c>
@@ -9437,7 +9488,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
         <v>67</v>
       </c>
@@ -9451,7 +9502,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
         <v>68</v>
       </c>
@@ -9465,7 +9516,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
         <v>69</v>
       </c>
@@ -9479,7 +9530,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>70</v>
       </c>
@@ -9493,7 +9544,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
@@ -9507,7 +9558,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
         <v>72</v>
       </c>
@@ -9521,7 +9572,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
         <v>73</v>
       </c>
@@ -9535,7 +9586,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
         <v>74</v>
       </c>
@@ -9549,7 +9600,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
         <v>75</v>
       </c>
@@ -9563,7 +9614,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>76</v>
       </c>
@@ -9577,7 +9628,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
         <v>77</v>
       </c>
@@ -9591,7 +9642,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
         <v>78</v>
       </c>
@@ -9605,7 +9656,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
         <v>79</v>
       </c>
@@ -9619,7 +9670,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
         <v>80</v>
       </c>
@@ -9633,7 +9684,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>81</v>
       </c>
@@ -9647,7 +9698,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
         <v>82</v>
       </c>
@@ -9661,7 +9712,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
         <v>83</v>
       </c>
@@ -9675,7 +9726,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
         <v>84</v>
       </c>
@@ -9689,7 +9740,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
         <v>85</v>
       </c>
@@ -9703,7 +9754,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>86</v>
       </c>
@@ -9717,7 +9768,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>87</v>
       </c>
@@ -9731,7 +9782,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
         <v>88</v>
       </c>
@@ -9745,7 +9796,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="40" t="s">
         <v>89</v>
       </c>
@@ -9759,7 +9810,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="40" t="s">
         <v>90</v>
       </c>
@@ -9773,7 +9824,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40" t="s">
         <v>91</v>
       </c>
@@ -9787,7 +9838,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40" t="s">
         <v>92</v>
       </c>
@@ -9801,7 +9852,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="40" t="s">
         <v>93</v>
       </c>
@@ -9815,7 +9866,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
         <v>94</v>
       </c>
@@ -9829,7 +9880,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
         <v>95</v>
       </c>
@@ -9843,7 +9894,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="40" t="s">
         <v>96</v>
       </c>
@@ -9857,7 +9908,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
         <v>97</v>
       </c>
@@ -9897,6 +9948,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E7:E46">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
@@ -9916,18 +9979,6 @@
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D46">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9969,19 +10020,19 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="45" customWidth="1"/>
-    <col min="2" max="11" width="10.5703125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="45" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="45"/>
+    <col min="1" max="1" width="17.81640625" style="45" customWidth="1"/>
+    <col min="2" max="11" width="10.54296875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="45" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="44" t="s">
         <v>98</v>
       </c>
@@ -9996,7 +10047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>101</v>
       </c>
@@ -10009,7 +10060,7 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
@@ -10017,7 +10068,7 @@
       <c r="M3" s="67"/>
       <c r="N3" s="68"/>
     </row>
-    <row r="4" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -10033,7 +10084,7 @@
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
         <v>102</v>
       </c>
@@ -10077,7 +10128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>115</v>
       </c>
@@ -10124,7 +10175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>116</v>
       </c>
@@ -10171,7 +10222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>117</v>
       </c>
@@ -10218,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
         <v>118</v>
       </c>
@@ -10265,7 +10316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
         <v>119</v>
       </c>
@@ -10312,7 +10363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>120</v>
       </c>
@@ -10359,7 +10410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>121</v>
       </c>
@@ -10406,7 +10457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
         <v>122</v>
       </c>
@@ -10453,7 +10504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>123</v>
       </c>
@@ -10500,7 +10551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>124</v>
       </c>
@@ -10547,7 +10598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>125</v>
       </c>
@@ -10594,7 +10645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>126</v>
       </c>
@@ -10641,7 +10692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
         <v>127</v>
       </c>
@@ -10688,7 +10739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
         <v>128</v>
       </c>
@@ -10735,7 +10786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>129</v>
       </c>
@@ -10782,7 +10833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>130</v>
       </c>
@@ -10829,7 +10880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
         <v>131</v>
       </c>
@@ -10876,7 +10927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
         <v>132</v>
       </c>
@@ -10923,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>133</v>
       </c>
@@ -10970,7 +11021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>134</v>
       </c>
@@ -11017,7 +11068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>135</v>
       </c>
@@ -11064,7 +11115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
         <v>136</v>
       </c>
@@ -11111,7 +11162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
         <v>137</v>
       </c>
@@ -11158,7 +11209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
         <v>138</v>
       </c>
@@ -11205,7 +11256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
         <v>139</v>
       </c>
@@ -11252,7 +11303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
         <v>140</v>
       </c>
@@ -11299,7 +11350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
         <v>141</v>
       </c>
@@ -11346,7 +11397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
         <v>142</v>
       </c>
@@ -11393,7 +11444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
@@ -11440,7 +11491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
         <v>144</v>
       </c>
@@ -11493,11 +11544,11 @@
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="G2:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="M6:M35">
+    <cfRule type="aboveAverage" dxfId="2" priority="1" aboveAverage="0"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N6:N35">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M35">
-    <cfRule type="aboveAverage" dxfId="0" priority="1" aboveAverage="0"/>
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11510,17 +11561,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="54"/>
-    <col min="3" max="3" width="30.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="54"/>
-    <col min="6" max="6" width="12.7109375" style="54" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="54"/>
+    <col min="1" max="2" width="8.7265625" style="54"/>
+    <col min="3" max="3" width="30.54296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="54"/>
+    <col min="6" max="6" width="12.7265625" style="54" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z2" s="54" t="b">
         <v>0</v>
       </c>
@@ -11529,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z3" s="54" t="b">
         <v>0</v>
       </c>
@@ -11538,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C4" s="55" t="s">
         <v>145</v>
       </c>
@@ -11550,7 +11601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C5" s="54" t="s">
         <v>146</v>
       </c>
@@ -11565,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E6" s="54" t="s">
         <v>148</v>
       </c>
@@ -11577,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E7" s="54" t="s">
         <v>149</v>
       </c>
@@ -11589,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C8" s="54" t="s">
         <v>150</v>
       </c>
@@ -11604,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C9" s="54" t="s">
         <v>152</v>
       </c>
@@ -11616,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C10" s="54" t="s">
         <v>153</v>
       </c>
@@ -11631,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z11" s="54" t="b">
         <v>0</v>
       </c>
@@ -11640,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C12" s="54" t="s">
         <v>155</v>
       </c>
@@ -11652,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
       <c r="Z13" s="54" t="b">
         <v>0</v>
       </c>
@@ -11661,7 +11712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E14" s="55" t="s">
         <v>156</v>
       </c>
@@ -11669,40 +11720,40 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23" s="54" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C27" s="70" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" s="70"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="54" t="s">
         <v>164</v>
       </c>
@@ -11711,27 +11762,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="54" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C43" s="54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="54" t="s">
         <v>169</v>
       </c>
@@ -11764,7 +11815,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11786,7 +11837,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11808,7 +11859,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11830,7 +11881,7 @@
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11852,7 +11903,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11874,7 +11925,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11896,7 +11947,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11918,7 +11969,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11940,7 +11991,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11962,7 +12013,7 @@
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11984,7 +12035,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12006,7 +12057,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12028,7 +12079,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>

--- a/wwwroot/XlsIO/ExcelToPDF.xlsx
+++ b/wwwroot/XlsIO/ExcelToPDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PandiKumarDuraivel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Validations\Excel to PDF\Excel_PDF\Excel_PDF\Modified Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1126ED71-5C6D-465D-B133-A2DDE7BA2D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D89D1E-F481-4DEC-817F-920DD2505414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="AdvancedCF" sheetId="16" r:id="rId6"/>
     <sheet name="Top-Bottom Rules" sheetId="18" r:id="rId7"/>
     <sheet name="Form Control" sheetId="20" r:id="rId8"/>
+    <sheet name="EMF image" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -28,10 +29,12 @@
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="Data.Dump" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="8" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
     <definedName name="HTML_Control" localSheetId="2" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="8" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" localSheetId="7" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
@@ -47,19 +50,22 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
     <definedName name="Macro1" localSheetId="2">Autoshapes!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="8">'EMF image'!Macro1</definedName>
     <definedName name="Macro1" localSheetId="7">'Form Control'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
     <definedName name="Macro2" localSheetId="2">Autoshapes!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="8">'EMF image'!Macro2</definedName>
     <definedName name="Macro2" localSheetId="7">'Form Control'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
     <definedName name="Ownership" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="8" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1321,7 +1327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1406,8 +1412,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="5" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1540,6 +1547,7 @@
     <xf numFmtId="171" fontId="50" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,7 +1576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="51">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Amounts" xfId="47" xr:uid="{36BC3C7C-A55F-4409-A9CC-BFB57F8D240A}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1601,6 +1609,7 @@
     <cellStyle name="Normal 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 4" xfId="40" xr:uid="{F6E41AC8-ED7C-4F42-A334-373180B7070F}"/>
     <cellStyle name="Normal 5" xfId="44" xr:uid="{B2FE65D7-95B1-47B5-A379-A4D26EE336A0}"/>
+    <cellStyle name="Normal 6" xfId="50" xr:uid="{19D89A87-6C24-46E0-AF07-4C1238EB0A75}"/>
     <cellStyle name="Normal_PivotSizeTest" xfId="36" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal_Sheet1" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal_TapePivot" xfId="37" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
@@ -1620,18 +1629,11 @@
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Year" xfId="45" xr:uid="{B8BDDE90-1244-4305-874C-3B48B609D645}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF339966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA63B26"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1645,13 +1647,6 @@
             <color rgb="FFFFFF00"/>
           </stop>
         </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339966"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -6676,6 +6671,50 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5486400" cy="2144619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5F38FC-04FF-46A9-99D4-DE465993140A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="158750"/>
+          <a:ext cx="5486400" cy="2144619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="labuser" refreshedDate="43532.512713310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
@@ -7176,19 +7215,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Currency_TapePivot">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Currency_TapePivot">
   <autoFilter ref="A6:H35" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="11" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="10" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="9" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="8" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>TEXT(A7,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="9" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="8" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="7" dataCellStyle="Normal_TapePivot"/>
-    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="6" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="7" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="5" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>G7*F7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7576,14 +7615,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8446,103 +8485,103 @@
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
@@ -8843,9 +8882,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="54"/>
+    <col min="1" max="16384" width="8.81640625" style="54"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8862,7 +8901,7 @@
   </sheetPr>
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -8870,7 +8909,7 @@
   <cols>
     <col min="1" max="1" width="3.54296875" style="21" customWidth="1"/>
     <col min="2" max="2" width="37.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="21" customWidth="1"/>
     <col min="4" max="5" width="21.453125" style="21" customWidth="1"/>
     <col min="6" max="6" width="6.453125" style="21" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" style="21" customWidth="1"/>
@@ -9227,16 +9266,16 @@
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
@@ -9324,17 +9363,17 @@
     <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
@@ -10023,13 +10062,13 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.81640625" style="45" customWidth="1"/>
     <col min="2" max="11" width="10.54296875" style="45" customWidth="1"/>
     <col min="12" max="12" width="8.453125" style="45" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" style="45" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="45"/>
+    <col min="14" max="16384" width="8.81640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -10040,10 +10079,10 @@
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="69" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10051,22 +10090,22 @@
       <c r="A2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
       <c r="K2" s="48"/>
       <c r="L2" s="46"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="49"/>
@@ -11545,10 +11584,10 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:M35">
-    <cfRule type="aboveAverage" dxfId="2" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="1" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N35">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11559,16 +11598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3C3B5-0723-4996-AAE5-1673A3F156D9}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="54"/>
+    <col min="1" max="2" width="8.81640625" style="54"/>
     <col min="3" max="3" width="30.54296875" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="54"/>
-    <col min="6" max="6" width="12.7265625" style="54" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="54"/>
+    <col min="4" max="5" width="8.81640625" style="54"/>
+    <col min="6" max="6" width="12.81640625" style="54" customWidth="1"/>
+    <col min="7" max="8" width="10.81640625" style="54" customWidth="1"/>
+    <col min="9" max="25" width="8.81640625" style="54"/>
+    <col min="26" max="27" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:27" x14ac:dyDescent="0.35">
@@ -11746,12 +11789,12 @@
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="71" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="70"/>
+      <c r="C28" s="71"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="54" t="s">
@@ -12180,4 +12223,23 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C89785-9273-416E-824F-78C993D5D9B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.90625" style="62"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>